--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -38,12 +38,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00FFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -59,11 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -141,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E3" headerRowCount="1">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E197" headerRowCount="1">
+  <autoFilter ref="A1:E197"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -155,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C2" headerRowCount="1">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C21" headerRowCount="1">
+  <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -455,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,52 +506,5290 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1:31:58</t>
+          <t>0:23:12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0:29:54</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0:05:50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0:38:58</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1:09:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0:05:37</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0:30:35</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0:27:05</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>0:50:03</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:39:09</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0:33:55</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0:46:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>2:02:29</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0:29:27</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0:00:21</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0:24:42</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>1:52:17</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0:24:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0:41:08</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0:03:36</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0:28:42</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0:33:18</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0:26:13</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>2:51:42</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0:19:03</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>1:15:34</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0:15:12</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0:06:37</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>0:30:59</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0:06:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0:31:12</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0:32:14</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0:04:26</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0:07:22</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>1:55:28</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>2:01:46</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>1:55:55</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>0:51:51</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>0:13:28</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0:21:58</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>0:59:13</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>1:17:22</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>0:31:59</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>3:16:17</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>1:27:33</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>0:55:21</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0:01:21</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>0:47:44</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0:07:29</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>0:07:24</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>0:36:15</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>0:45:28</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0:06:58</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>0:30:47</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>2:04:21</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>0:41:42</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>0:30:19</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>0:05:32</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>0:14:26</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>0:25:05</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>0:43:57</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>0:32:56</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:44:21</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>0:30:59</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>0:04:57</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1:04:17</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0:36:50</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>0:55:49</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>1:15:54</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>1:38:12</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0:27:25</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>0:21:57</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>0:03:27</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>0:43:01</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0:03:54</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>0:51:13</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:37:25</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>0:50:37</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0:21:27</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:20:43</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>0:39:32</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>0:05:36</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>0:05:46</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>0:35:11</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:05:05</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>0:35:14</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>0:44:44</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>0:30:56</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>0:07:17</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>1:50:49</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>0:32:35</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>1:59:48</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>0:29:30</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>0:48:50</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>0:41:07</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>0:27:45</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>0:28:40</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>1:09:46</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>0:36:52</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>0:04:48</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>0:27:36</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>1:55:56</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0:01:22</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0:31:03</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>0:18:14</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>0:05:25</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>0:58:19</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>0:55:00</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>0:00:28</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>0:00:30</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>0:05:42</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>2:01:29</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>0:08:16</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>0:26:54</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>0:01:40</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>0:38:43</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>0:29:30</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>0:31:36</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>0:41:21</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>0:30:22</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>0:38:28</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>0:31:19</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>0:02:07</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>0:36:16</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>0:51:53</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>0:20:06</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>0:36:12</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>0:53:48</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>0:52:12</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>0:44:47</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>0:33:08</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>1:52:43</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>1:42:29</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>0:08:04</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>2:43:02</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>0:04:55</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>0:47:12</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>0:34:23</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0:06:44</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>2:11:30</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>0:18:29</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>0:41:46</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>1:00:41</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>0:33:18</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>0:06:20</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>0:35:32</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>0:07:50</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>0:44:36</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>0:04:31</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>0:30:24</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C156" s="4" t="inlineStr">
+        <is>
+          <t>0:57:20</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>0:40:18</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>1:06:30</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>0:06:38</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>0:29:28</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>0:35:29</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>0:35:05</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>0:05:39</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>0:36:01</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>0:34:19</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>0:09:21</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>0:44:43</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>0:07:03</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>0:34:47</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>0:06:12</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>0:16:51</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>0:45:37</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>0:29:09</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>0:33:32</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>0:14:55</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>0:38:40</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>0:29:19</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>0:39:35</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>0:07:41</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>1:30:39</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>0:53:50</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>0:39:12</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>1:09:20</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>0:24:01</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>0:41:42</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>0:33:58</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>0:30:39</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C188" s="4" t="inlineStr">
+        <is>
+          <t>0:51:50</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>0:44:13</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>0:32:09</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>0:36:01</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>0:10:19</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>2:22:16</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>0:07:01</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>0:22:19</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>1:31:58</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E196" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
           <t>2025-05-18</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>0:29:51</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -565,7 +5809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +5818,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -598,15 +5842,338 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-17-25 to 05-18-25</t>
+          <t>01-03-25 to 01-05-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01-06-25 to 01-12-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 8</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-13-25 to 01-19-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-20-25 to 01-26-25</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01-27-25 to 02-02-25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02-03-25 to 02-09-25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02-10-25 to 02-16-25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02-17-25 to 02-23-25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02-26-25 to 03-02-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>03-03-25 to 03-09-25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03-10-25 to 03-16-25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03-17-25 to 03-23-25</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Strand 3, Strand 4</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03-25-25 to 03-30-25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 3, Strand 5, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04-03-25 to 04-06-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04-07-25 to 04-13-25</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04-14-25 to 04-20-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04-21-25 to 04-27-25</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 8</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04-28-25 to 05-04-25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05-05-25 to 05-11-25</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05-12-25 to 05-18-25</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -5548,6 +5548,31 @@
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>1:16:09</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5567,7 +5592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5954,6 +5979,40 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Week Range</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strands Completed</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>All 8 Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05-18-25 to 05-24-25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -2,23 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8170" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inspection Log" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Weekly Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -29,27 +29,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -79,19 +64,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -166,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E204" headerRowCount="1">
-  <autoFilter ref="A1:E204"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E212" headerRowCount="1">
+  <autoFilter ref="A1:E212"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -175,19 +156,19 @@
     <tableColumn id="4" name="Multiple Switches"/>
     <tableColumn id="5" name="Pass/Fail"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C22" headerRowCount="1">
-  <autoFilter ref="A1:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C23" headerRowCount="1">
+  <autoFilter ref="A1:C23"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
     <tableColumn id="3" name="All 8 Present"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1"/>
 </table>
 </file>
 
@@ -482,13 +463,13 @@
   </sheetPr>
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -531,7 +512,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>0:23:12</t>
         </is>
@@ -541,7 +522,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -553,12 +534,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>0:00:10</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>0:29:54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -566,7 +547,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -578,12 +559,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>0:29:54</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -591,7 +572,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -606,7 +587,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>0:05:50</t>
         </is>
@@ -616,7 +597,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -631,7 +612,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>0:38:58</t>
         </is>
@@ -641,7 +622,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -653,22 +634,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>1:09:30</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -678,22 +659,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>0:05:37</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1:09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -706,7 +687,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>0:30:35</t>
         </is>
@@ -716,7 +697,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -731,7 +712,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>0:27:05</t>
         </is>
@@ -741,7 +722,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -756,7 +737,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>0:50:03</t>
         </is>
@@ -766,7 +747,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -781,7 +762,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>0:39:09</t>
         </is>
@@ -791,7 +772,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -806,7 +787,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>0:33:55</t>
         </is>
@@ -816,7 +797,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -831,7 +812,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>0:46:45</t>
         </is>
@@ -841,7 +822,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -856,7 +837,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>2:02:29</t>
         </is>
@@ -866,7 +847,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E15" s="6" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -878,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>0:29:27</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0:00:21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -891,7 +872,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -903,12 +884,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>0:00:21</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0:29:27</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -916,7 +897,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -931,7 +912,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>0:24:42</t>
         </is>
@@ -941,7 +922,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -956,7 +937,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>1:52:17</t>
         </is>
@@ -966,7 +947,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -981,7 +962,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>0:24:30</t>
         </is>
@@ -991,7 +972,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1006,7 +987,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>0:41:08</t>
         </is>
@@ -1016,7 +997,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1028,20 +1009,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>0:03:36</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0:28:42</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1053,20 +1034,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>0:28:42</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1081,7 +1062,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>0:33:18</t>
         </is>
@@ -1091,7 +1072,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1106,7 +1087,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>2:51:42</t>
         </is>
@@ -1116,7 +1097,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E25" s="6" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1131,7 +1112,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>0:26:13</t>
         </is>
@@ -1141,7 +1122,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1156,7 +1137,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>0:19:03</t>
         </is>
@@ -1166,7 +1147,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1181,7 +1162,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>1:15:34</t>
         </is>
@@ -1191,7 +1172,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1206,7 +1187,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>0:06:37</t>
         </is>
@@ -1216,7 +1197,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1231,7 +1212,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>0:15:12</t>
         </is>
@@ -1241,7 +1222,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1256,7 +1237,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>0:30:59</t>
         </is>
@@ -1266,7 +1247,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1281,7 +1262,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>0:06:30</t>
         </is>
@@ -1291,7 +1272,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1306,7 +1287,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>0:31:12</t>
         </is>
@@ -1316,7 +1297,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1331,7 +1312,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>0:32:14</t>
         </is>
@@ -1341,7 +1322,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1356,7 +1337,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>0:04:26</t>
         </is>
@@ -1366,7 +1347,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1381,7 +1362,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>0:07:22</t>
         </is>
@@ -1391,7 +1372,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1406,7 +1387,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C37" s="6" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>1:55:28</t>
         </is>
@@ -1416,7 +1397,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E37" s="6" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1431,7 +1412,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>2:01:46</t>
         </is>
@@ -1441,7 +1422,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E38" s="6" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1453,22 +1434,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C39" s="6" t="inlineStr">
-        <is>
-          <t>1:55:55</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>0:51:51</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E39" s="6" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1478,22 +1459,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C40" s="7" t="inlineStr">
-        <is>
-          <t>0:51:51</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>1:55:55</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1487,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>0:21:58</t>
         </is>
@@ -1516,7 +1497,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1531,7 +1512,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>0:13:28</t>
         </is>
@@ -1541,7 +1522,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1556,7 +1537,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C43" s="7" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>0:59:13</t>
         </is>
@@ -1566,7 +1547,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1578,22 +1559,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>0:19:58</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1:17:22</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E44" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1603,22 +1584,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C45" s="6" t="inlineStr">
-        <is>
-          <t>1:17:22</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E45" s="6" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1612,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>0:31:59</t>
         </is>
@@ -1641,7 +1622,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E46" s="5" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1656,7 +1637,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C47" s="6" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>1:27:33</t>
         </is>
@@ -1666,7 +1647,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E47" s="6" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1681,7 +1662,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>3:16:17</t>
         </is>
@@ -1691,7 +1672,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1706,7 +1687,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>0:01:21</t>
         </is>
@@ -1716,7 +1697,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1731,7 +1712,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C50" s="7" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>0:55:21</t>
         </is>
@@ -1741,7 +1722,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1756,7 +1737,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>0:47:44</t>
         </is>
@@ -1766,7 +1747,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1781,7 +1762,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>0:07:29</t>
         </is>
@@ -1791,7 +1772,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1806,7 +1787,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>0:07:24</t>
         </is>
@@ -1816,7 +1797,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1831,7 +1812,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>0:36:15</t>
         </is>
@@ -1841,7 +1822,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1853,22 +1834,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C55" s="5" t="inlineStr">
-        <is>
-          <t>0:30:47</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>2:04:21</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1878,22 +1859,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>2:04:21</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E56" s="6" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1887,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>0:45:28</t>
         </is>
@@ -1916,7 +1897,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1931,7 +1912,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>0:06:58</t>
         </is>
@@ -1941,7 +1922,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1953,20 +1934,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C59" s="5" t="inlineStr">
-        <is>
-          <t>0:41:42</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>0:30:19</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E59" s="5" t="inlineStr">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1978,20 +1959,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C60" s="5" t="inlineStr">
-        <is>
-          <t>0:30:19</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>0:41:42</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E60" s="5" t="inlineStr">
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2003,12 +1984,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C61" s="5" t="inlineStr">
-        <is>
-          <t>0:05:32</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2016,7 +1997,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2028,12 +2009,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C62" s="5" t="inlineStr">
-        <is>
-          <t>0:14:26</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>0:05:32</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2041,7 +2022,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2056,7 +2037,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>0:25:05</t>
         </is>
@@ -2066,7 +2047,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2081,7 +2062,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C64" s="5" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>0:43:57</t>
         </is>
@@ -2091,7 +2072,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2106,7 +2087,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C65" s="5" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>0:32:56</t>
         </is>
@@ -2116,7 +2097,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="5" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2131,7 +2112,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C66" s="5" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>0:44:21</t>
         </is>
@@ -2141,7 +2122,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="5" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2153,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C67" s="5" t="inlineStr">
-        <is>
-          <t>0:30:59</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2166,7 +2147,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E67" s="5" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2178,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C68" s="5" t="inlineStr">
-        <is>
-          <t>0:04:57</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2191,7 +2172,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E68" s="5" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2206,7 +2187,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C69" s="5" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>0:36:50</t>
         </is>
@@ -2216,7 +2197,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E69" s="5" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2231,7 +2212,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>1:04:17</t>
         </is>
@@ -2241,7 +2222,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E70" s="6" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2256,7 +2237,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>1:15:54</t>
         </is>
@@ -2266,7 +2247,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E71" s="6" t="inlineStr">
+      <c r="E71" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2281,7 +2262,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C72" s="7" t="inlineStr">
+      <c r="C72" s="4" t="inlineStr">
         <is>
           <t>0:55:49</t>
         </is>
@@ -2291,7 +2272,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E72" s="5" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2306,7 +2287,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C73" s="5" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>0:27:25</t>
         </is>
@@ -2316,7 +2297,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E73" s="5" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2328,22 +2309,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C74" s="6" t="inlineStr">
-        <is>
-          <t>1:38:12</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E74" s="6" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2353,22 +2334,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C75" s="5" t="inlineStr">
-        <is>
-          <t>0:03:27</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>1:38:12</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E75" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2362,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C76" s="5" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>0:21:57</t>
         </is>
@@ -2391,7 +2372,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E76" s="5" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2406,7 +2387,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C77" s="5" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>0:03:54</t>
         </is>
@@ -2416,7 +2397,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E77" s="5" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2431,7 +2412,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C78" s="5" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>0:43:01</t>
         </is>
@@ -2441,7 +2422,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E78" s="5" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2456,7 +2437,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C79" s="7" t="inlineStr">
+      <c r="C79" s="4" t="inlineStr">
         <is>
           <t>0:51:13</t>
         </is>
@@ -2466,7 +2447,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E79" s="5" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2478,20 +2459,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C80" s="7" t="inlineStr">
-        <is>
-          <t>0:50:37</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E80" s="5" t="inlineStr">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2503,20 +2484,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C81" s="5" t="inlineStr">
-        <is>
-          <t>0:37:25</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>0:50:37</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E81" s="5" t="inlineStr">
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2528,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C82" s="5" t="inlineStr">
-        <is>
-          <t>0:20:43</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0:37:25</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2541,7 +2522,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E82" s="5" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2556,7 +2537,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C83" s="5" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>0:21:27</t>
         </is>
@@ -2566,7 +2547,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E83" s="5" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2581,7 +2562,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C84" s="5" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>0:39:32</t>
         </is>
@@ -2591,7 +2572,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E84" s="5" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2606,7 +2587,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C85" s="5" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>0:35:11</t>
         </is>
@@ -2616,7 +2597,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E85" s="5" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2631,7 +2612,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C86" s="5" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>0:05:36</t>
         </is>
@@ -2641,7 +2622,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E86" s="5" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2656,7 +2637,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C87" s="5" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
         <is>
           <t>0:05:46</t>
         </is>
@@ -2666,7 +2647,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E87" s="5" t="inlineStr">
+      <c r="E87" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2678,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C88" s="5" t="inlineStr">
-        <is>
-          <t>0:05:05</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:35:14</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2691,7 +2672,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E88" s="5" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2703,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C89" s="5" t="inlineStr">
-        <is>
-          <t>0:35:14</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2716,7 +2697,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E89" s="5" t="inlineStr">
+      <c r="E89" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2731,7 +2712,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C90" s="5" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>0:44:44</t>
         </is>
@@ -2741,7 +2722,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E90" s="5" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2756,7 +2737,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C91" s="5" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>0:07:17</t>
         </is>
@@ -2766,7 +2747,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E91" s="5" t="inlineStr">
+      <c r="E91" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2781,7 +2762,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C92" s="5" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>0:30:56</t>
         </is>
@@ -2791,7 +2772,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E92" s="5" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2806,7 +2787,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C93" s="6" t="inlineStr">
+      <c r="C93" s="3" t="inlineStr">
         <is>
           <t>1:50:49</t>
         </is>
@@ -2816,7 +2797,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="6" t="inlineStr">
+      <c r="E93" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2831,7 +2812,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C94" s="5" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>0:32:35</t>
         </is>
@@ -2841,7 +2822,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="5" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2856,7 +2837,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C95" s="6" t="inlineStr">
+      <c r="C95" s="3" t="inlineStr">
         <is>
           <t>1:59:48</t>
         </is>
@@ -2866,7 +2847,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E95" s="6" t="inlineStr">
+      <c r="E95" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2881,7 +2862,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C96" s="5" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>0:29:30</t>
         </is>
@@ -2891,7 +2872,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E96" s="5" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2906,7 +2887,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C97" s="5" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>0:48:50</t>
         </is>
@@ -2916,7 +2897,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E97" s="5" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2931,7 +2912,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C98" s="5" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>0:41:07</t>
         </is>
@@ -2941,7 +2922,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E98" s="5" t="inlineStr">
+      <c r="E98" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2956,7 +2937,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C99" s="5" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>0:27:45</t>
         </is>
@@ -2966,7 +2947,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E99" s="5" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -2981,7 +2962,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C100" s="5" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>0:28:40</t>
         </is>
@@ -2991,7 +2972,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E100" s="5" t="inlineStr">
+      <c r="E100" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3006,7 +2987,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
+      <c r="C101" s="3" t="inlineStr">
         <is>
           <t>1:09:46</t>
         </is>
@@ -3016,7 +2997,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E101" s="6" t="inlineStr">
+      <c r="E101" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3031,7 +3012,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C102" s="5" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>0:36:52</t>
         </is>
@@ -3041,7 +3022,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E102" s="5" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3056,7 +3037,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C103" s="5" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>0:27:36</t>
         </is>
@@ -3066,7 +3047,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E103" s="5" t="inlineStr">
+      <c r="E103" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3081,7 +3062,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C104" s="5" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>0:04:48</t>
         </is>
@@ -3091,7 +3072,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E104" s="5" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3106,7 +3087,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C105" s="5" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>0:07:20</t>
         </is>
@@ -3116,7 +3097,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E105" s="5" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3131,7 +3112,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C106" s="6" t="inlineStr">
+      <c r="C106" s="3" t="inlineStr">
         <is>
           <t>1:55:56</t>
         </is>
@@ -3141,7 +3122,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E106" s="6" t="inlineStr">
+      <c r="E106" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3153,12 +3134,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C107" s="5" t="inlineStr">
-        <is>
-          <t>0:01:22</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0:31:03</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3166,7 +3147,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="5" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3178,12 +3159,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C108" s="5" t="inlineStr">
-        <is>
-          <t>0:31:03</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3191,7 +3172,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="5" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3206,7 +3187,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C109" s="5" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>0:18:14</t>
         </is>
@@ -3216,7 +3197,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E109" s="5" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3231,7 +3212,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C110" s="7" t="inlineStr">
+      <c r="C110" s="4" t="inlineStr">
         <is>
           <t>0:58:19</t>
         </is>
@@ -3241,7 +3222,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E110" s="5" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3256,7 +3237,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C111" s="5" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>0:05:25</t>
         </is>
@@ -3266,7 +3247,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E111" s="5" t="inlineStr">
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3278,12 +3259,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C112" s="7" t="inlineStr">
-        <is>
-          <t>0:55:00</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>0:00:28</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3291,7 +3272,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E112" s="5" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3303,12 +3284,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C113" s="5" t="inlineStr">
-        <is>
-          <t>0:00:28</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>0:55:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3316,7 +3297,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E113" s="5" t="inlineStr">
+      <c r="E113" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3331,7 +3312,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C114" s="5" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>0:00:30</t>
         </is>
@@ -3341,7 +3322,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E114" s="5" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3356,7 +3337,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C115" s="5" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>0:05:42</t>
         </is>
@@ -3366,7 +3347,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E115" s="5" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3381,7 +3362,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C116" s="6" t="inlineStr">
+      <c r="C116" s="3" t="inlineStr">
         <is>
           <t>2:01:29</t>
         </is>
@@ -3391,7 +3372,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E116" s="6" t="inlineStr">
+      <c r="E116" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3406,7 +3387,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C117" s="5" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>0:08:16</t>
         </is>
@@ -3416,7 +3397,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E117" s="5" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3431,7 +3412,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C118" s="5" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>0:26:54</t>
         </is>
@@ -3441,7 +3422,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E118" s="5" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3456,7 +3437,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C119" s="5" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>0:38:43</t>
         </is>
@@ -3466,7 +3447,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E119" s="5" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3481,7 +3462,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C120" s="5" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>0:01:40</t>
         </is>
@@ -3491,7 +3472,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E120" s="5" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3506,7 +3487,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C121" s="5" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>0:29:30</t>
         </is>
@@ -3516,7 +3497,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E121" s="5" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3531,7 +3512,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C122" s="5" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>0:31:36</t>
         </is>
@@ -3541,7 +3522,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E122" s="5" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3556,7 +3537,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C123" s="5" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>0:41:21</t>
         </is>
@@ -3566,7 +3547,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E123" s="5" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3581,7 +3562,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C124" s="5" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>0:07:20</t>
         </is>
@@ -3591,7 +3572,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E124" s="5" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3606,7 +3587,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C125" s="5" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>0:30:22</t>
         </is>
@@ -3616,7 +3597,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E125" s="5" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3631,7 +3612,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C126" s="5" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>0:38:28</t>
         </is>
@@ -3641,7 +3622,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E126" s="5" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3656,7 +3637,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C127" s="5" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>0:02:07</t>
         </is>
@@ -3666,7 +3647,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E127" s="5" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3681,7 +3662,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C128" s="5" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>0:31:19</t>
         </is>
@@ -3691,7 +3672,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E128" s="5" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3706,7 +3687,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C129" s="5" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>0:20:06</t>
         </is>
@@ -3716,7 +3697,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E129" s="5" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3728,12 +3709,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C130" s="5" t="inlineStr">
-        <is>
-          <t>0:36:16</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>0:51:53</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3741,7 +3722,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E130" s="5" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3753,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C131" s="7" t="inlineStr">
-        <is>
-          <t>0:51:53</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3766,7 +3747,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E131" s="5" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3781,7 +3762,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C132" s="5" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>0:36:12</t>
         </is>
@@ -3791,7 +3772,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E132" s="5" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3803,12 +3784,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C133" s="7" t="inlineStr">
-        <is>
-          <t>0:53:48</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3816,7 +3797,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E133" s="5" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3828,20 +3809,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C134" s="7" t="inlineStr">
-        <is>
-          <t>0:52:12</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>0:53:48</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E134" s="5" t="inlineStr">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3853,20 +3834,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C135" s="5" t="inlineStr">
-        <is>
-          <t>0:44:47</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>0:52:12</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E135" s="5" t="inlineStr">
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3881,7 +3862,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C136" s="6" t="inlineStr">
+      <c r="C136" s="3" t="inlineStr">
         <is>
           <t>1:52:43</t>
         </is>
@@ -3891,7 +3872,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E136" s="6" t="inlineStr">
+      <c r="E136" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3906,7 +3887,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C137" s="5" t="inlineStr">
+      <c r="C137" s="2" t="inlineStr">
         <is>
           <t>0:33:08</t>
         </is>
@@ -3916,7 +3897,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="5" t="inlineStr">
+      <c r="E137" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3931,7 +3912,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C138" s="6" t="inlineStr">
+      <c r="C138" s="3" t="inlineStr">
         <is>
           <t>1:42:29</t>
         </is>
@@ -3941,7 +3922,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E138" s="6" t="inlineStr">
+      <c r="E138" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3953,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C139" s="5" t="inlineStr">
-        <is>
-          <t>0:08:04</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3966,7 +3947,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E139" s="5" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3978,12 +3959,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C140" s="5" t="inlineStr">
-        <is>
-          <t>0:04:55</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3991,7 +3972,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E140" s="5" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4006,7 +3987,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C141" s="6" t="inlineStr">
+      <c r="C141" s="3" t="inlineStr">
         <is>
           <t>2:43:02</t>
         </is>
@@ -4016,7 +3997,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E141" s="6" t="inlineStr">
+      <c r="E141" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -4031,7 +4012,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C142" s="5" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>0:47:12</t>
         </is>
@@ -4041,7 +4022,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E142" s="5" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4056,7 +4037,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C143" s="5" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>0:34:23</t>
         </is>
@@ -4066,7 +4047,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E143" s="5" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4081,7 +4062,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C144" s="5" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>0:06:44</t>
         </is>
@@ -4091,7 +4072,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E144" s="5" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4106,7 +4087,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C145" s="6" t="inlineStr">
+      <c r="C145" s="3" t="inlineStr">
         <is>
           <t>2:11:30</t>
         </is>
@@ -4116,7 +4097,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E145" s="6" t="inlineStr">
+      <c r="E145" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -4131,7 +4112,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C146" s="5" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>0:18:29</t>
         </is>
@@ -4141,7 +4122,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E146" s="5" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4156,7 +4137,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C147" s="5" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>0:41:46</t>
         </is>
@@ -4166,7 +4147,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E147" s="5" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4181,7 +4162,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C148" s="6" t="inlineStr">
+      <c r="C148" s="3" t="inlineStr">
         <is>
           <t>1:00:41</t>
         </is>
@@ -4191,7 +4172,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E148" s="6" t="inlineStr">
+      <c r="E148" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -4203,12 +4184,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C149" s="5" t="inlineStr">
-        <is>
-          <t>0:33:18</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4216,7 +4197,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E149" s="5" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4228,12 +4209,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C150" s="5" t="inlineStr">
-        <is>
-          <t>0:07:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>0:33:18</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4241,7 +4222,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E150" s="5" t="inlineStr">
+      <c r="E150" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4256,7 +4237,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C151" s="5" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>0:06:20</t>
         </is>
@@ -4266,7 +4247,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E151" s="5" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4281,7 +4262,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C152" s="5" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>0:35:32</t>
         </is>
@@ -4291,7 +4272,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E152" s="5" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4303,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C153" s="5" t="inlineStr">
-        <is>
-          <t>0:44:36</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>0:04:31</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4316,7 +4297,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E153" s="5" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4328,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C154" s="5" t="inlineStr">
-        <is>
-          <t>0:04:31</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>0:44:36</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4341,7 +4322,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E154" s="5" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4356,7 +4337,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C155" s="5" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>0:30:24</t>
         </is>
@@ -4366,7 +4347,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E155" s="5" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4381,7 +4362,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C156" s="7" t="inlineStr">
+      <c r="C156" s="4" t="inlineStr">
         <is>
           <t>0:57:20</t>
         </is>
@@ -4391,7 +4372,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E156" s="5" t="inlineStr">
+      <c r="E156" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4406,7 +4387,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C157" s="5" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>0:40:18</t>
         </is>
@@ -4416,7 +4397,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E157" s="5" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4431,7 +4412,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C158" s="5" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>0:06:38</t>
         </is>
@@ -4441,7 +4422,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E158" s="5" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4456,7 +4437,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C159" s="6" t="inlineStr">
+      <c r="C159" s="3" t="inlineStr">
         <is>
           <t>1:06:30</t>
         </is>
@@ -4466,7 +4447,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E159" s="6" t="inlineStr">
+      <c r="E159" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -4481,7 +4462,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C160" s="5" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>0:29:28</t>
         </is>
@@ -4491,7 +4472,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E160" s="5" t="inlineStr">
+      <c r="E160" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4506,7 +4487,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C161" s="5" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>0:35:29</t>
         </is>
@@ -4516,7 +4497,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E161" s="5" t="inlineStr">
+      <c r="E161" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4531,7 +4512,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C162" s="5" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>0:35:05</t>
         </is>
@@ -4541,7 +4522,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E162" s="5" t="inlineStr">
+      <c r="E162" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4556,7 +4537,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C163" s="5" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>0:05:39</t>
         </is>
@@ -4566,7 +4547,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E163" s="5" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4578,12 +4559,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C164" s="5" t="inlineStr">
-        <is>
-          <t>0:36:01</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>0:34:19</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4591,7 +4572,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E164" s="5" t="inlineStr">
+      <c r="E164" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4603,12 +4584,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C165" s="5" t="inlineStr">
-        <is>
-          <t>0:34:19</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>0:36:01</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4616,7 +4597,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E165" s="5" t="inlineStr">
+      <c r="E165" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4631,7 +4612,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C166" s="5" t="inlineStr">
+      <c r="C166" s="2" t="inlineStr">
         <is>
           <t>0:09:21</t>
         </is>
@@ -4641,7 +4622,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E166" s="5" t="inlineStr">
+      <c r="E166" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4656,7 +4637,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C167" s="5" t="inlineStr">
+      <c r="C167" s="2" t="inlineStr">
         <is>
           <t>0:44:43</t>
         </is>
@@ -4666,7 +4647,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E167" s="5" t="inlineStr">
+      <c r="E167" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4681,7 +4662,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C168" s="5" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>0:34:47</t>
         </is>
@@ -4691,7 +4672,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E168" s="5" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4706,7 +4687,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C169" s="5" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>0:07:03</t>
         </is>
@@ -4716,7 +4697,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E169" s="5" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4728,20 +4709,20 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C170" s="5" t="inlineStr">
-        <is>
-          <t>0:06:12</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E170" s="5" t="inlineStr">
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4753,12 +4734,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C171" s="5" t="inlineStr">
-        <is>
-          <t>0:16:51</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4766,7 +4747,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E171" s="5" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4778,20 +4759,20 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C172" s="5" t="inlineStr">
-        <is>
-          <t>0:45:37</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>0:16:51</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E172" s="5" t="inlineStr">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4806,7 +4787,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C173" s="5" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>0:29:09</t>
         </is>
@@ -4816,7 +4797,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E173" s="5" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4831,7 +4812,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C174" s="5" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>0:33:32</t>
         </is>
@@ -4841,7 +4822,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E174" s="5" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4856,7 +4837,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C175" s="5" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>0:14:55</t>
         </is>
@@ -4866,7 +4847,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E175" s="5" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4881,7 +4862,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C176" s="5" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>0:38:40</t>
         </is>
@@ -4891,7 +4872,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E176" s="5" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4906,7 +4887,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C177" s="5" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>0:29:19</t>
         </is>
@@ -4916,7 +4897,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E177" s="5" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4928,12 +4909,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C178" s="5" t="inlineStr">
-        <is>
-          <t>0:39:35</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>0:07:41</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4941,7 +4922,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E178" s="5" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4953,12 +4934,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C179" s="5" t="inlineStr">
-        <is>
-          <t>0:07:41</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>0:39:35</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4966,7 +4947,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E179" s="5" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4981,7 +4962,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C180" s="7" t="inlineStr">
+      <c r="C180" s="4" t="inlineStr">
         <is>
           <t>0:53:50</t>
         </is>
@@ -4991,7 +4972,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E180" s="5" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5006,7 +4987,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C181" s="6" t="inlineStr">
+      <c r="C181" s="3" t="inlineStr">
         <is>
           <t>1:30:39</t>
         </is>
@@ -5016,7 +4997,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E181" s="6" t="inlineStr">
+      <c r="E181" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5031,7 +5012,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C182" s="5" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>0:39:12</t>
         </is>
@@ -5041,7 +5022,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E182" s="5" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5056,7 +5037,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C183" s="6" t="inlineStr">
+      <c r="C183" s="3" t="inlineStr">
         <is>
           <t>1:09:20</t>
         </is>
@@ -5066,7 +5047,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E183" s="6" t="inlineStr">
+      <c r="E183" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5081,7 +5062,7 @@
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C184" s="5" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>0:24:01</t>
         </is>
@@ -5091,7 +5072,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E184" s="5" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5106,7 +5087,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C185" s="5" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>0:33:58</t>
         </is>
@@ -5116,7 +5097,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E185" s="5" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5131,7 +5112,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C186" s="5" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>0:41:42</t>
         </is>
@@ -5141,7 +5122,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E186" s="5" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5156,7 +5137,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C187" s="5" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>0:30:39</t>
         </is>
@@ -5166,7 +5147,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E187" s="5" t="inlineStr">
+      <c r="E187" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5181,7 +5162,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C188" s="7" t="inlineStr">
+      <c r="C188" s="4" t="inlineStr">
         <is>
           <t>0:51:50</t>
         </is>
@@ -5191,7 +5172,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E188" s="5" t="inlineStr">
+      <c r="E188" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5206,7 +5187,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C189" s="5" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>0:44:13</t>
         </is>
@@ -5216,7 +5197,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E189" s="5" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5231,7 +5212,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C190" s="5" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>0:36:01</t>
         </is>
@@ -5241,7 +5222,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E190" s="5" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5256,7 +5237,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C191" s="5" t="inlineStr">
+      <c r="C191" s="2" t="inlineStr">
         <is>
           <t>0:32:09</t>
         </is>
@@ -5266,7 +5247,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E191" s="5" t="inlineStr">
+      <c r="E191" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5281,7 +5262,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C192" s="5" t="inlineStr">
+      <c r="C192" s="2" t="inlineStr">
         <is>
           <t>0:10:19</t>
         </is>
@@ -5291,7 +5272,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E192" s="5" t="inlineStr">
+      <c r="E192" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5303,22 +5284,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C193" s="6" t="inlineStr">
-        <is>
-          <t>2:22:16</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E193" s="6" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5328,22 +5309,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C194" s="5" t="inlineStr">
-        <is>
-          <t>0:07:01</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>2:22:16</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E194" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5356,7 +5337,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C195" s="5" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>0:22:19</t>
         </is>
@@ -5366,7 +5347,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E195" s="5" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5381,7 +5362,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C196" s="6" t="inlineStr">
+      <c r="C196" s="3" t="inlineStr">
         <is>
           <t>1:31:58</t>
         </is>
@@ -5391,7 +5372,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E196" s="6" t="inlineStr">
+      <c r="E196" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5406,7 +5387,7 @@
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C197" s="5" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>0:29:51</t>
         </is>
@@ -5416,7 +5397,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E197" s="5" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5428,20 +5409,20 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C198" s="5" t="inlineStr">
-        <is>
-          <t>0:00:45</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E198" s="5" t="inlineStr">
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5453,12 +5434,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C199" s="5" t="inlineStr">
-        <is>
-          <t>0:09:15</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5466,7 +5447,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E199" s="5" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5481,7 +5462,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C200" s="7" t="inlineStr">
+      <c r="C200" s="4" t="inlineStr">
         <is>
           <t>0:58:31</t>
         </is>
@@ -5491,7 +5472,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E200" s="5" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5503,20 +5484,20 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C201" s="5" t="inlineStr">
-        <is>
-          <t>0:24:32</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E201" s="5" t="inlineStr">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5531,7 +5512,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C202" s="6" t="inlineStr">
+      <c r="C202" s="3" t="inlineStr">
         <is>
           <t>1:08:18</t>
         </is>
@@ -5541,7 +5522,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E202" s="6" t="inlineStr">
+      <c r="E202" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5556,7 +5537,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C203" s="6" t="inlineStr">
+      <c r="C203" s="3" t="inlineStr">
         <is>
           <t>2:45:14</t>
         </is>
@@ -5566,7 +5547,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E203" s="6" t="inlineStr">
+      <c r="E203" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5581,7 +5562,7 @@
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C204" s="6" t="inlineStr">
+      <c r="C204" s="3" t="inlineStr">
         <is>
           <t>1:16:09</t>
         </is>
@@ -5591,14 +5572,14 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E204" s="6" t="inlineStr">
+      <c r="E204" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="8" t="n">
+      <c r="A205" s="1" t="n">
         <v>45799</v>
       </c>
       <c r="B205" t="inlineStr">
@@ -5606,7 +5587,7 @@
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C205" s="6" t="inlineStr">
+      <c r="C205" s="3" t="inlineStr">
         <is>
           <t>2:55:35</t>
         </is>
@@ -5616,89 +5597,89 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E205" s="6" t="inlineStr">
+      <c r="E205" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="8" t="n">
+      <c r="A206" s="1" t="n">
         <v>45800</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>0:08:33</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C206" s="5" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
         <is>
           <t>0:00:47</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E206" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="8" t="n">
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
         <v>45800</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C207" s="5" t="inlineStr">
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>0:39:50</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E207" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="8" t="n">
-        <v>45800</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C208" s="5" t="inlineStr">
-        <is>
-          <t>0:08:33</t>
-        </is>
-      </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="E208" s="5" t="inlineStr">
+      <c r="E208" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="8" t="n">
+      <c r="A209" s="1" t="n">
         <v>45801</v>
       </c>
       <c r="B209" t="inlineStr">
@@ -5706,7 +5687,7 @@
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C209" s="7" t="inlineStr">
+      <c r="C209" s="4" t="inlineStr">
         <is>
           <t>0:52:30</t>
         </is>
@@ -5716,14 +5697,14 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E209" s="5" t="inlineStr">
+      <c r="E209" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="8" t="n">
+      <c r="A210" s="1" t="n">
         <v>45801</v>
       </c>
       <c r="B210" t="inlineStr">
@@ -5731,7 +5712,7 @@
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C210" s="5" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>0:21:26</t>
         </is>
@@ -5741,14 +5722,14 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E210" s="5" t="inlineStr">
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="8" t="n">
+      <c r="A211" s="1" t="n">
         <v>45802</v>
       </c>
       <c r="B211" t="inlineStr">
@@ -5756,7 +5737,7 @@
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C211" s="5" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>0:40:12</t>
         </is>
@@ -5766,14 +5747,14 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E211" s="5" t="inlineStr">
+      <c r="E211" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="8" t="n">
+      <c r="A212" s="1" t="n">
         <v>45803</v>
       </c>
       <c r="B212" t="inlineStr">
@@ -5781,7 +5762,7 @@
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C212" s="6" t="inlineStr">
+      <c r="C212" s="3" t="inlineStr">
         <is>
           <t>3:13:00</t>
         </is>
@@ -5791,7 +5772,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E212" s="6" t="inlineStr">
+      <c r="E212" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5811,13 +5792,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -5852,7 +5833,7 @@
           <t>Strand 5, Strand 6</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5869,7 +5850,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5886,7 +5867,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5903,7 +5884,7 @@
           <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5920,7 +5901,7 @@
           <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5937,7 +5918,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 8</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5954,7 +5935,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5971,7 +5952,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5988,7 +5969,7 @@
           <t>Strand 2, Strand 5, Strand 6, Strand 7</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6005,7 +5986,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6022,7 +6003,7 @@
           <t>Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6039,7 +6020,7 @@
           <t>Strand 3, Strand 4, Strand 7</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6056,7 +6037,7 @@
           <t>Strand 3, Strand 5, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6073,7 +6054,7 @@
           <t>Strand 2, Strand 3, Strand 4, Strand 5</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6090,7 +6071,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6107,7 +6088,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 8</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6124,7 +6105,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6141,7 +6122,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -6158,7 +6139,7 @@
           <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -6175,7 +6156,7 @@
           <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6189,61 +6170,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Week Range</t>
+          <t>05-25-25 to 05-31-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strands Completed</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>All 8 Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05-18-25 to 05-24-25</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 8</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>05-25-25 to 05-31-25</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>Strand 5, Strand 6</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -5773,6 +5773,156 @@
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>2:20:50</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E213" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>0:03:50</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>0:03:08</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>0:02:40</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>0:02:37</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>4:01:43</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -5792,7 +5942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6196,6 +6346,40 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Week Range</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strands Completed</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>All 8 Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05-25-25 to 05-31-25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E223" headerRowCount="1">
-  <autoFilter ref="A1:E223"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E229" headerRowCount="1">
+  <autoFilter ref="A1:E229"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C23" headerRowCount="1">
-  <autoFilter ref="A1:C23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C24" headerRowCount="1">
+  <autoFilter ref="A1:C24"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0:28:42</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:28:42</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0:06:30</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:06:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:07:22</t>
+          <t>0:04:26</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0:04:26</t>
+          <t>0:07:22</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>0:19:58</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>0:59:13</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>0:59:13</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1:17:22</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1584,22 +1584,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>1:17:22</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1634,12 +1634,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>1:27:33</t>
+          <t>3:16:17</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>3:16:17</t>
+          <t>1:27:33</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:47:44</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>0:47:44</t>
+          <t>0:07:29</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>0:14:26</t>
+          <t>0:25:05</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:44:21</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>0:44:21</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2284,22 +2284,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>0:03:27</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>1:38:12</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0:21:57</t>
+          <t>0:27:25</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2334,22 +2334,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>1:38:12</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2359,12 +2359,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:27:25</t>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:43:01</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0:43:01</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:35:14</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>0:35:14</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:30:56</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>0:30:56</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>0:27:36</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:27:36</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>0:20:06</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>0:51:53</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>0:36:16</t>
+          <t>0:20:06</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C131" s="4" t="inlineStr">
-        <is>
-          <t>0:51:53</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>0:04:55</t>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>0:08:04</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>2:43:02</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3972,9 +3972,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3984,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="inlineStr">
-        <is>
-          <t>2:43:02</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3997,9 +3997,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E141" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4059,22 +4059,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t>2:11:30</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0:06:44</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4084,22 +4084,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>0:06:44</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>2:11:30</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>0:41:46</t>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>0:18:29</t>
+          <t>0:41:46</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:33:18</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:33:18</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>0:06:38</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>1:06:30</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4422,9 +4422,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>1:06:30</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>0:06:38</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4447,9 +4447,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E159" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4709,12 +4709,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>0:16:51</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4734,17 +4734,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>0:06:12</t>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
@@ -4759,17 +4759,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>0:45:37</t>
+          <t>0:16:51</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>0:33:32</t>
+          <t>0:29:09</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>0:29:09</t>
+          <t>0:33:32</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5434,12 +5434,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C199" s="4" t="inlineStr">
-        <is>
-          <t>0:58:31</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>0:09:15</t>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>0:00:45</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C201" s="4" t="inlineStr">
+        <is>
+          <t>0:58:31</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:39:50</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>0:39:50</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>0:21:26</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C209" s="4" t="inlineStr">
+        <is>
+          <t>0:52:30</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C210" s="4" t="inlineStr">
-        <is>
-          <t>0:52:30</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>0:21:26</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5809,12 +5809,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5834,22 +5834,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>0:03:50</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>4:01:43</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E215" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5884,17 +5884,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>4:01:43</t>
+          <t>2:20:50</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C218" s="3" t="inlineStr">
-        <is>
-          <t>2:20:50</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5922,9 +5922,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E218" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6050,6 +6050,156 @@
       <c r="E223" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>2:05:56</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>0:03:39</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t>1:04:05</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>0:03:24</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>3:25:47</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>1:13:29</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6471,6 +6621,23 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06-01-25 to 06-07-25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>0:36:15</t>
+          <t>0:07:24</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>0:07:24</t>
+          <t>0:36:15</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>0:30:47</t>
+          <t>0:45:28</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1909,17 +1909,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>0:45:28</t>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>0:05:32</t>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>0:05:32</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>0:14:26</t>
+          <t>0:25:05</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:21:57</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:37:25</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>0:20:43</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>0:37:25</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>0:00:28</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>0:55:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C113" s="4" t="inlineStr">
-        <is>
-          <t>0:55:00</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>0:00:28</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>0:20:06</t>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -3734,17 +3734,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>0:36:16</t>
+          <t>0:20:06</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
@@ -3784,17 +3784,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C133" s="4" t="inlineStr">
-        <is>
-          <t>0:52:12</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>0:44:47</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>0:52:12</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
-        <is>
-          <t>1:00:41</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4122,9 +4122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E146" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>0:18:29</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>1:00:41</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4147,9 +4147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E147" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4184,17 +4184,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>0:35:32</t>
+          <t>0:33:18</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
@@ -4209,17 +4209,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>0:33:18</t>
+          <t>0:35:32</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>0:06:12</t>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -4734,17 +4734,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>0:45:37</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>0:14:55</t>
+          <t>0:29:09</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>0:29:09</t>
+          <t>0:14:55</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5409,17 +5409,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>0:24:32</t>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
@@ -5434,17 +5434,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>0:09:15</t>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5834,22 +5834,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C215" s="3" t="inlineStr">
-        <is>
-          <t>4:01:43</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E215" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5859,22 +5859,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>0:02:37</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>4:01:43</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5959,17 +5959,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>1:52:51</t>
+          <t>1:13:32</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>1:13:32</t>
+          <t>1:52:51</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E221" s="3" t="inlineStr">
@@ -6134,12 +6134,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C227" s="2" t="inlineStr">
-        <is>
-          <t>0:03:24</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>3:25:47</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6147,9 +6147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E227" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6159,12 +6159,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C228" s="3" t="inlineStr">
-        <is>
-          <t>3:25:47</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6172,9 +6172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E228" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E229" headerRowCount="1">
-  <autoFilter ref="A1:E229"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E232" headerRowCount="1">
+  <autoFilter ref="A1:E232"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0:38:58</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:38:58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -634,22 +634,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0:05:37</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1:09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -659,22 +659,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>1:09:30</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0:00:21</t>
+          <t>0:29:27</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0:29:27</t>
+          <t>0:00:21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0:06:37</t>
+          <t>0:15:12</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0:15:12</t>
+          <t>0:06:37</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1384,17 +1384,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>2:01:46</t>
+          <t>1:55:28</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>1:55:28</t>
+          <t>2:01:46</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>0:21:58</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:21:58</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>1:17:22</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1584,22 +1584,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>0:19:58</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>1:17:22</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1684,17 +1684,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>0:01:21</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>0:55:21</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -1709,17 +1709,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>0:55:21</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -1834,17 +1834,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:45:28</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>0:45:28</t>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>0:30:47</t>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>0:14:26</t>
+          <t>0:05:32</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>0:05:32</t>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>0:32:56</t>
+          <t>0:43:57</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>0:43:57</t>
+          <t>0:32:56</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>1:04:17</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>0:36:50</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2197,9 +2197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>0:36:50</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>1:04:17</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2222,9 +2222,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2284,22 +2284,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>1:38:12</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0:27:25</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2309,22 +2309,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>0:27:25</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>1:38:12</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:43:01</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:43:01</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2459,17 +2459,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>0:37:25</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>0:50:37</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:37:25</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2534,17 +2534,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>0:50:37</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>0:05:46</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:05:46</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>0:35:14</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:35:14</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:27:36</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>0:27:36</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3209,17 +3209,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>0:05:25</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>0:58:19</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -3234,17 +3234,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C111" s="4" t="inlineStr">
-        <is>
-          <t>0:58:19</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:38:43</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:29:30</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:38:43</t>
+          <t>0:29:30</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>0:44:47</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>0:53:48</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3809,12 +3809,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C134" s="4" t="inlineStr">
-        <is>
-          <t>0:53:48</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3859,12 +3859,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>0:33:08</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>1:52:43</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3872,9 +3872,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>1:52:43</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>0:33:08</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,9 +3897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3959,12 +3959,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t>2:43:02</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3972,9 +3972,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3984,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>0:04:55</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>2:43:02</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3997,9 +3997,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C147" s="3" t="inlineStr">
-        <is>
-          <t>1:00:41</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>0:41:46</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4147,9 +4147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E147" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>0:41:46</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>1:00:41</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4172,9 +4172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E148" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4209,17 +4209,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>0:35:32</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:35:32</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
@@ -4659,12 +4659,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:34:47</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>0:34:47</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>0:45:37</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -4734,17 +4734,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>0:06:12</t>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>0:14:55</t>
+          <t>0:33:32</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>0:33:32</t>
+          <t>0:14:55</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C180" s="3" t="inlineStr">
-        <is>
-          <t>1:30:39</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>0:53:50</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4972,9 +4972,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E180" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C181" s="4" t="inlineStr">
-        <is>
-          <t>0:53:50</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>1:30:39</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4997,9 +4997,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5084,12 +5084,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>0:33:58</t>
+          <t>0:41:42</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5109,12 +5109,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>0:41:42</t>
+          <t>0:33:58</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5284,22 +5284,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>0:07:01</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>2:22:16</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5309,22 +5309,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C194" s="3" t="inlineStr">
-        <is>
-          <t>2:22:16</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E194" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>0:09:15</t>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5434,17 +5434,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>0:24:32</t>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
@@ -5459,17 +5459,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>0:39:50</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:39:50</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>0:02:37</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>2:20:50</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5797,9 +5797,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E213" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5834,12 +5834,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5859,22 +5859,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C216" s="3" t="inlineStr">
-        <is>
-          <t>4:01:43</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E216" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5884,17 +5884,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>2:20:50</t>
+          <t>4:01:43</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>1:13:32</t>
+          <t>1:52:51</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>1:52:51</t>
+          <t>1:13:32</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E221" s="3" t="inlineStr">
@@ -6009,12 +6009,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>0:08:24</t>
+          <t>0:29:05</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>0:29:05</t>
+          <t>0:08:24</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6059,12 +6059,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C224" s="3" t="inlineStr">
-        <is>
-          <t>2:05:56</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6072,9 +6072,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E224" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6084,12 +6084,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>0:03:39</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>2:05:56</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6097,9 +6097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6159,22 +6159,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t>0:03:24</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>1:13:29</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6184,20 +6184,95 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C229" s="3" t="inlineStr">
-        <is>
-          <t>1:13:29</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E229" s="3" t="inlineStr">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>0:49:37</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>0:44:39</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
+        <is>
+          <t>1:30:52</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -6629,7 +6704,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4, Strand 5</t>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E232" headerRowCount="1">
-  <autoFilter ref="A1:E232"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E233" headerRowCount="1">
+  <autoFilter ref="A1:E233"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E232"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,22 +634,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>1:09:30</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -659,22 +659,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0:05:37</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1:09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0:29:27</t>
+          <t>0:00:21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0:00:21</t>
+          <t>0:29:27</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0:15:12</t>
+          <t>0:06:37</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0:06:37</t>
+          <t>0:15:12</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1384,17 +1384,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>1:55:28</t>
+          <t>2:01:46</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>2:01:46</t>
+          <t>1:55:28</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:21:58</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0:21:58</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>3:16:17</t>
+          <t>1:27:33</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>1:27:33</t>
+          <t>3:16:17</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1684,17 +1684,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>0:55:21</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -1709,17 +1709,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>0:01:21</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>0:55:21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -1834,17 +1834,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>0:45:28</t>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -1909,17 +1909,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:45:28</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>0:36:50</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1:04:17</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2197,9 +2197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>1:04:17</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0:36:50</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2222,9 +2222,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2284,22 +2284,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>0:27:25</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>1:38:12</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2309,22 +2309,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>1:38:12</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>0:21:57</t>
+          <t>0:27:25</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2459,17 +2459,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>0:50:37</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:37:25</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>0:37:25</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2534,17 +2534,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>0:21:27</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>0:50:37</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:05:46</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:05:46</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:30:56</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:30:56</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3209,17 +3209,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C110" s="4" t="inlineStr">
-        <is>
-          <t>0:58:19</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -3234,17 +3234,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>0:05:25</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>0:58:19</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:38:43</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:38:43</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C129" s="4" t="inlineStr">
-        <is>
-          <t>0:51:53</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>0:20:06</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3709,12 +3709,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>0:36:16</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>0:51:53</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3734,17 +3734,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>0:20:06</t>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
@@ -3809,17 +3809,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>0:44:47</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>0:52:12</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C135" s="4" t="inlineStr">
-        <is>
-          <t>0:52:12</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
@@ -3859,12 +3859,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t>1:52:43</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>0:33:08</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3872,9 +3872,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E136" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>0:33:08</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>1:52:43</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,9 +3897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>0:41:46</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>1:00:41</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4147,9 +4147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E147" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C148" s="3" t="inlineStr">
-        <is>
-          <t>1:00:41</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>0:41:46</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4172,9 +4172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E148" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4209,17 +4209,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:35:32</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:35:32</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>1:06:30</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>0:06:38</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4422,9 +4422,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E158" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t>0:06:38</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>1:06:30</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4447,9 +4447,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4659,12 +4659,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>0:34:47</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:34:47</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>0:33:32</t>
+          <t>0:14:55</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>0:14:55</t>
+          <t>0:33:32</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C180" s="4" t="inlineStr">
-        <is>
-          <t>0:53:50</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>1:30:39</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4972,9 +4972,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C181" s="3" t="inlineStr">
-        <is>
-          <t>1:30:39</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>0:53:50</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4997,9 +4997,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E181" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5084,12 +5084,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>0:41:42</t>
+          <t>0:33:58</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5109,12 +5109,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>0:33:58</t>
+          <t>0:41:42</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5284,22 +5284,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C193" s="3" t="inlineStr">
-        <is>
-          <t>2:22:16</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E193" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5309,22 +5309,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>0:07:01</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>2:22:16</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5434,17 +5434,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>0:09:15</t>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
@@ -5459,17 +5459,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>0:24:32</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C200" s="4" t="inlineStr">
+        <is>
+          <t>0:58:31</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C201" s="4" t="inlineStr">
-        <is>
-          <t>0:58:31</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>0:39:50</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:39:50</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C213" s="3" t="inlineStr">
-        <is>
-          <t>2:20:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5797,9 +5797,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E213" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5809,12 +5809,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5834,12 +5834,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>0:02:37</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>2:20:50</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5847,9 +5847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E215" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5884,22 +5884,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C217" s="3" t="inlineStr">
-        <is>
-          <t>4:01:43</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E217" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>0:03:08</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>4:01:43</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6009,12 +6009,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>0:29:05</t>
+          <t>0:08:24</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>0:08:24</t>
+          <t>0:29:05</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6059,12 +6059,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>0:03:39</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>2:05:56</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6072,9 +6072,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6084,12 +6084,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C225" s="3" t="inlineStr">
-        <is>
-          <t>2:05:56</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6097,9 +6097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E225" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6159,22 +6159,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C228" s="3" t="inlineStr">
-        <is>
-          <t>1:13:29</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E228" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6184,22 +6184,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>0:03:24</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>1:13:29</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6275,6 +6275,31 @@
       <c r="E232" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C233" s="4" t="inlineStr">
+        <is>
+          <t>0:54:41</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E233" headerRowCount="1">
-  <autoFilter ref="A1:E233"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E239" headerRowCount="1">
+  <autoFilter ref="A1:E239"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C24" headerRowCount="1">
-  <autoFilter ref="A1:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C25" headerRowCount="1">
+  <autoFilter ref="A1:C25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:38:58</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0:38:58</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>0:19:58</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1:17:22</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1584,22 +1584,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>1:17:22</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>0:14:26</t>
+          <t>0:25:05</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:27:25</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>0:27:25</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:43:01</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0:43:01</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:35:14</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>0:35:14</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>0:27:36</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:27:36</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:38:43</t>
+          <t>0:29:30</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:29:30</t>
+          <t>0:38:43</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3709,12 +3709,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C130" s="4" t="inlineStr">
-        <is>
-          <t>0:51:53</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>0:36:16</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>0:51:53</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>0:04:55</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>2:43:02</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3972,9 +3972,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3984,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="inlineStr">
-        <is>
-          <t>2:43:02</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3997,9 +3997,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E141" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4734,17 +4734,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>0:45:37</t>
+          <t>0:16:51</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
@@ -4759,17 +4759,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>0:16:51</t>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C200" s="4" t="inlineStr">
-        <is>
-          <t>0:58:31</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>0:00:45</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C201" s="4" t="inlineStr">
+        <is>
+          <t>0:58:31</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5834,17 +5834,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>2:20:50</t>
+          <t>4:01:43</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E215" s="3" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>0:02:37</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>2:20:50</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5872,9 +5872,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E216" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C218" s="3" t="inlineStr">
-        <is>
-          <t>4:01:43</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E218" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6298,6 +6298,156 @@
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>0:34:36</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C235" s="3" t="inlineStr">
+        <is>
+          <t>1:04:05</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E235" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>0:10:44</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="inlineStr">
+        <is>
+          <t>5:33:17</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E237" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>0:02:49</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>0:47:05</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6317,7 +6467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6738,6 +6888,23 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>06-08-25 to 06-14-25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E239" headerRowCount="1">
-  <autoFilter ref="A1:E239"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E240" headerRowCount="1">
+  <autoFilter ref="A1:E240"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,12 +534,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0:29:54</t>
+          <t>0:00:10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -559,12 +559,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0:00:10</t>
+          <t>0:29:54</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0:38:58</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:38:58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -634,22 +634,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0:05:37</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1:09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -659,22 +659,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>1:09:30</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0:00:21</t>
+          <t>0:29:27</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0:29:27</t>
+          <t>0:00:21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1009,17 +1009,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:28:42</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0:28:42</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1084,22 +1084,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>2:51:42</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0:26:13</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1109,22 +1109,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0:26:13</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>2:51:42</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1184,17 +1184,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0:06:37</t>
+          <t>0:15:12</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0:15:12</t>
+          <t>0:06:37</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:06:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0:06:30</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1384,17 +1384,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>2:01:46</t>
+          <t>1:55:28</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>1:55:28</t>
+          <t>2:01:46</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1434,22 +1434,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>0:51:51</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>1:55:55</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1459,22 +1459,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>1:55:55</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>0:51:51</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1484,12 +1484,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>0:21:58</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:21:58</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1534,22 +1534,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>0:59:13</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>1:17:22</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1559,22 +1559,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>1:17:22</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1584,12 +1584,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>0:19:58</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>0:59:13</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>1:27:33</t>
+          <t>3:16:17</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>3:16:17</t>
+          <t>1:27:33</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1684,17 +1684,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>0:01:21</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>0:55:21</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -1709,17 +1709,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>0:55:21</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>0:47:44</t>
+          <t>0:07:29</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:47:44</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>0:07:24</t>
+          <t>0:36:15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>0:36:15</t>
+          <t>0:07:24</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1834,12 +1834,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>2:04:21</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0:45:28</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1872,9 +1872,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1884,22 +1884,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>0:30:47</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>2:04:21</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1909,17 +1909,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>0:45:28</t>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -1934,17 +1934,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>0:30:19</t>
+          <t>0:41:42</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>0:41:42</t>
+          <t>0:30:19</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>0:05:32</t>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>0:14:26</t>
+          <t>0:05:32</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>0:43:57</t>
+          <t>0:32:56</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>0:32:56</t>
+          <t>0:43:57</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>0:44:21</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:44:21</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>1:04:17</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>0:36:50</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2197,9 +2197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>0:36:50</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>1:04:17</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2222,9 +2222,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2234,12 +2234,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>1:15:54</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>0:55:49</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2247,9 +2247,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C72" s="4" t="inlineStr">
-        <is>
-          <t>0:55:49</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>1:15:54</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2272,9 +2272,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2284,22 +2284,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>1:38:12</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0:27:25</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0:27:25</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2359,22 +2359,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>0:21:57</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>1:38:12</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:43:01</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:43:01</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2459,17 +2459,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>0:37:25</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>0:50:37</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>0:20:43</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2534,17 +2534,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>0:50:37</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:37:25</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>0:05:46</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:05:46</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:30:56</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>0:30:56</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:27:36</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>0:27:36</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3084,12 +3084,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>0:07:20</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>1:55:56</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3097,9 +3097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>1:55:56</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3122,9 +3122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>0:31:03</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3159,12 +3159,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:31:03</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3209,17 +3209,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>0:05:25</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>0:58:19</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -3234,17 +3234,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C111" s="4" t="inlineStr">
-        <is>
-          <t>0:58:19</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C112" s="4" t="inlineStr">
-        <is>
-          <t>0:55:00</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>0:00:28</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>0:00:28</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>0:55:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3309,17 +3309,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>0:00:30</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -3334,17 +3334,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:00:30</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:38:43</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:38:43</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3634,12 +3634,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:31:19</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>0:31:19</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>0:20:06</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>0:51:53</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>0:36:16</t>
+          <t>0:20:06</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C131" s="4" t="inlineStr">
-        <is>
-          <t>0:51:53</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C133" s="4" t="inlineStr">
-        <is>
-          <t>0:53:48</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>0:44:47</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>0:53:48</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3859,12 +3859,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>0:33:08</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>1:52:43</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3872,9 +3872,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>1:52:43</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>0:33:08</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,9 +3897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>0:08:04</t>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3984,12 +3984,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>0:04:55</t>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4059,22 +4059,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>0:06:44</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>2:11:30</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4084,22 +4084,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="inlineStr">
-        <is>
-          <t>2:11:30</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>0:06:44</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E145" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>0:18:29</t>
+          <t>0:41:46</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>0:41:46</t>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4184,12 +4184,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>0:33:18</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4209,17 +4209,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>0:35:32</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
@@ -4234,17 +4234,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:35:32</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:33:18</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>0:04:31</t>
+          <t>0:44:36</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>0:44:36</t>
+          <t>0:04:31</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>0:06:38</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>1:06:30</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4422,9 +4422,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>1:06:30</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>0:06:38</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4447,9 +4447,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E159" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>0:34:19</t>
+          <t>0:36:01</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>0:36:01</t>
+          <t>0:34:19</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4609,17 +4609,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>0:09:21</t>
+          <t>0:44:43</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
@@ -4634,17 +4634,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>0:44:43</t>
+          <t>0:09:21</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -4659,12 +4659,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:34:47</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>0:34:47</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>0:06:12</t>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -4759,17 +4759,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>0:45:37</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>0:29:09</t>
+          <t>0:33:32</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>0:33:32</t>
+          <t>0:29:09</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4909,12 +4909,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>0:07:41</t>
+          <t>0:39:35</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4934,12 +4934,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>0:39:35</t>
+          <t>0:07:41</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C180" s="3" t="inlineStr">
-        <is>
-          <t>1:30:39</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>0:53:50</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4972,9 +4972,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E180" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C181" s="4" t="inlineStr">
-        <is>
-          <t>0:53:50</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>1:30:39</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4997,9 +4997,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5084,12 +5084,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>0:33:58</t>
+          <t>0:41:42</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5109,12 +5109,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>0:41:42</t>
+          <t>0:33:58</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>0:36:01</t>
+          <t>0:32:09</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>0:32:09</t>
+          <t>0:36:01</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5284,22 +5284,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>0:07:01</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>2:22:16</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5309,22 +5309,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C194" s="3" t="inlineStr">
-        <is>
-          <t>2:22:16</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E194" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>0:09:15</t>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5434,17 +5434,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C199" s="2" t="inlineStr">
-        <is>
-          <t>0:24:32</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C199" s="4" t="inlineStr">
+        <is>
+          <t>0:58:31</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
@@ -5459,17 +5459,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C201" s="4" t="inlineStr">
-        <is>
-          <t>0:58:31</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5509,17 +5509,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>1:08:18</t>
+          <t>2:45:14</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
@@ -5534,17 +5534,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>2:45:14</t>
+          <t>1:08:18</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:39:50</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>0:39:50</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C209" s="4" t="inlineStr">
-        <is>
-          <t>0:52:30</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>0:21:26</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>0:21:26</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C210" s="4" t="inlineStr">
+        <is>
+          <t>0:52:30</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5809,12 +5809,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>0:03:08</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="inlineStr">
+        <is>
+          <t>2:20:50</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5822,9 +5822,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E214" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C216" s="3" t="inlineStr">
-        <is>
-          <t>2:20:50</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5872,9 +5872,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E216" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5884,12 +5884,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>0:02:37</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>1:52:51</t>
+          <t>1:13:32</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>1:13:32</t>
+          <t>1:52:51</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E221" s="3" t="inlineStr">
@@ -6009,12 +6009,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>0:08:24</t>
+          <t>0:29:05</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>0:29:05</t>
+          <t>0:08:24</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6059,12 +6059,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C224" s="3" t="inlineStr">
-        <is>
-          <t>2:05:56</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6072,9 +6072,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E224" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6084,12 +6084,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>0:03:39</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>2:05:56</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6097,9 +6097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6134,17 +6134,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>3:25:47</t>
+          <t>1:13:29</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr">
@@ -6184,17 +6184,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>1:13:29</t>
+          <t>3:25:47</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E229" s="3" t="inlineStr">
@@ -6209,12 +6209,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>0:49:37</t>
+          <t>0:44:39</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6234,12 +6234,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>0:44:39</t>
+          <t>0:49:37</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6309,12 +6309,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C234" s="2" t="inlineStr">
-        <is>
-          <t>0:34:36</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
+        <is>
+          <t>1:04:05</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6322,9 +6322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6334,12 +6334,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C235" s="3" t="inlineStr">
-        <is>
-          <t>1:04:05</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>0:34:36</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6347,9 +6347,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E235" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6359,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>0:10:44</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="inlineStr">
+        <is>
+          <t>5:33:17</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6372,9 +6372,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6384,12 +6384,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C237" s="3" t="inlineStr">
-        <is>
-          <t>5:33:17</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>0:10:44</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6397,9 +6397,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E237" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6448,6 +6448,31 @@
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>0:33:26</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6896,7 +6921,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E240" headerRowCount="1">
-  <autoFilter ref="A1:E240"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E247" headerRowCount="1">
+  <autoFilter ref="A1:E247"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C25" headerRowCount="1">
-  <autoFilter ref="A1:C25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C26" headerRowCount="1">
+  <autoFilter ref="A1:C26"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0:28:42</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:28:42</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1084,22 +1084,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0:26:13</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>2:51:42</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1109,22 +1109,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>2:51:42</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0:26:13</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0:06:30</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:06:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1534,22 +1534,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>1:17:22</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>0:59:13</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1584,22 +1584,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>0:59:13</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>1:17:22</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1634,12 +1634,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>3:16:17</t>
+          <t>1:27:33</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>1:27:33</t>
+          <t>3:16:17</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:47:44</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>0:47:44</t>
+          <t>0:07:29</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>0:36:15</t>
+          <t>0:07:24</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>0:07:24</t>
+          <t>0:36:15</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1834,17 +1834,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>0:30:47</t>
+          <t>0:45:28</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -1859,17 +1859,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>0:45:28</t>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>0:14:26</t>
+          <t>0:05:32</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>0:05:32</t>
+          <t>0:25:05</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>0:32:56</t>
+          <t>0:43:57</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>0:43:57</t>
+          <t>0:32:56</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:44:21</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:44:21</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C71" s="4" t="inlineStr">
-        <is>
-          <t>0:55:49</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>1:15:54</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2247,9 +2247,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>1:15:54</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>0:55:49</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2272,9 +2272,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2284,22 +2284,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>0:27:25</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>1:38:12</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:27:25</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2359,22 +2359,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>1:38:12</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E76" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2459,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>0:50:37</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:37:25</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>0:20:43</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>0:50:37</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:37:25</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>0:35:14</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:35:14</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:30:56</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:30:56</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3084,12 +3084,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>1:55:56</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3097,9 +3097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E105" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>0:07:20</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>1:55:56</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3122,9 +3122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3209,17 +3209,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C110" s="4" t="inlineStr">
-        <is>
-          <t>0:58:19</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -3234,17 +3234,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>0:05:25</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>0:58:19</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>0:00:28</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>0:55:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C113" s="4" t="inlineStr">
-        <is>
-          <t>0:55:00</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>0:00:28</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3309,17 +3309,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:00:30</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -3334,17 +3334,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>0:00:30</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:38:43</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:29:30</t>
+          <t>0:38:43</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:29:30</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3634,12 +3634,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>0:31:19</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:31:19</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C129" s="4" t="inlineStr">
-        <is>
-          <t>0:51:53</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>0:36:16</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>0:51:53</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>0:44:47</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>0:53:48</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3809,17 +3809,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C134" s="4" t="inlineStr">
-        <is>
-          <t>0:52:12</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>0:53:48</t>
+          <t>0:52:12</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>0:04:55</t>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t>2:43:02</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3972,9 +3972,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3984,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>0:08:04</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>2:43:02</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3997,9 +3997,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4059,22 +4059,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t>2:11:30</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0:06:44</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4084,22 +4084,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>0:06:44</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>2:11:30</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>0:41:46</t>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C147" s="3" t="inlineStr">
-        <is>
-          <t>1:00:41</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>0:41:46</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4147,9 +4147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E147" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>0:18:29</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>1:00:41</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4172,9 +4172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E148" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4184,12 +4184,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:33:18</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4234,17 +4234,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>0:35:32</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:33:18</t>
+          <t>0:35:32</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>1:06:30</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>0:06:38</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4422,9 +4422,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E158" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t>0:06:38</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>1:06:30</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4447,9 +4447,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4609,17 +4609,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>0:44:43</t>
+          <t>0:09:21</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
@@ -4634,17 +4634,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>0:09:21</t>
+          <t>0:44:43</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -4659,12 +4659,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>0:34:47</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:34:47</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>0:45:37</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -4759,17 +4759,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>0:06:12</t>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>0:33:32</t>
+          <t>0:29:09</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>0:14:55</t>
+          <t>0:33:32</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>0:29:09</t>
+          <t>0:14:55</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>0:32:09</t>
+          <t>0:36:01</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>0:36:01</t>
+          <t>0:32:09</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5409,12 +5409,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5434,12 +5434,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C199" s="4" t="inlineStr">
-        <is>
-          <t>0:58:31</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5459,17 +5459,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>0:24:32</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C200" s="4" t="inlineStr">
+        <is>
+          <t>0:58:31</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
@@ -5484,17 +5484,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>0:09:15</t>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
@@ -5509,17 +5509,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>2:45:14</t>
+          <t>1:08:18</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
@@ -5534,17 +5534,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>1:08:18</t>
+          <t>2:45:14</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>0:39:50</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:39:50</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>0:21:26</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C209" s="4" t="inlineStr">
+        <is>
+          <t>0:52:30</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C210" s="4" t="inlineStr">
-        <is>
-          <t>0:52:30</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>0:21:26</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>0:02:37</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5834,22 +5834,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C215" s="3" t="inlineStr">
-        <is>
-          <t>4:01:43</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E215" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5909,22 +5909,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>0:03:50</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>4:01:43</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5959,17 +5959,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>1:13:32</t>
+          <t>1:52:51</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>1:52:51</t>
+          <t>1:13:32</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E221" s="3" t="inlineStr">
@@ -6059,12 +6059,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>0:03:39</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>2:05:56</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6072,9 +6072,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6084,12 +6084,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C225" s="3" t="inlineStr">
-        <is>
-          <t>2:05:56</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6097,9 +6097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E225" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6134,17 +6134,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>1:13:29</t>
+          <t>3:25:47</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr">
@@ -6159,22 +6159,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t>0:03:24</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>1:13:29</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6184,12 +6184,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C229" s="3" t="inlineStr">
-        <is>
-          <t>3:25:47</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6197,9 +6197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E229" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6209,12 +6209,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>0:44:39</t>
+          <t>0:49:37</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6234,12 +6234,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>0:49:37</t>
+          <t>0:44:39</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6473,6 +6473,181 @@
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>0:30:36</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C242" s="3" t="inlineStr">
+        <is>
+          <t>1:08:36</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>0:07:43</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="inlineStr">
+        <is>
+          <t>1:26:17</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="inlineStr">
+        <is>
+          <t>2:49:51</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E245" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C246" s="3" t="inlineStr">
+        <is>
+          <t>1:16:29</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="inlineStr">
+        <is>
+          <t>0:43:41</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6492,7 +6667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6921,10 +7096,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>06-15-25 to 06-21-25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E247" headerRowCount="1">
-  <autoFilter ref="A1:E247"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E252" headerRowCount="1">
+  <autoFilter ref="A1:E252"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,22 +634,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>1:09:30</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -659,22 +659,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0:05:37</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1:09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0:29:27</t>
+          <t>0:00:21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0:00:21</t>
+          <t>0:29:27</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1009,17 +1009,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:28:42</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0:28:42</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:06:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0:06:30</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:04:26</t>
+          <t>0:07:22</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0:07:22</t>
+          <t>0:04:26</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>0:59:13</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>0:19:58</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1:17:22</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1584,22 +1584,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>1:17:22</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>0:59:13</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1734,12 +1734,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>0:47:44</t>
+          <t>0:07:29</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:47:44</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1834,17 +1834,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>0:45:28</t>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -1859,17 +1859,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>0:30:47</t>
+          <t>0:45:28</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>0:05:32</t>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>0:14:26</t>
+          <t>0:25:05</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>0:05:32</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>0:43:57</t>
+          <t>0:32:56</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>0:32:56</t>
+          <t>0:43:57</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>0:44:21</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:44:21</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2284,22 +2284,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>1:38:12</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0:27:25</t>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>0:21:57</t>
+          <t>0:27:25</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2359,22 +2359,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>0:03:27</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>1:38:12</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>0:37:25</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>0:20:43</t>
+          <t>0:37:25</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3084,12 +3084,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>0:07:20</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>1:55:56</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3097,9 +3097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>1:55:56</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3122,9 +3122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3209,17 +3209,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>0:05:25</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>0:58:19</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
@@ -3234,17 +3234,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C111" s="4" t="inlineStr">
-        <is>
-          <t>0:58:19</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C112" s="4" t="inlineStr">
-        <is>
-          <t>0:55:00</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>0:00:28</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>0:00:28</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>0:55:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3309,17 +3309,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>0:00:30</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -3334,17 +3334,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:00:30</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:38:43</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:38:43</t>
+          <t>0:29:30</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:29:30</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>0:36:16</t>
+          <t>0:20:06</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>0:20:06</t>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C133" s="4" t="inlineStr">
-        <is>
-          <t>0:53:48</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3809,12 +3809,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>0:44:47</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>0:53:48</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>0:08:04</t>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>0:04:55</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>2:43:02</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3972,9 +3972,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3984,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="inlineStr">
-        <is>
-          <t>2:43:02</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3997,9 +3997,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E141" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4059,22 +4059,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>0:06:44</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>2:11:30</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4084,22 +4084,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="inlineStr">
-        <is>
-          <t>2:11:30</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>0:06:44</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E145" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>0:18:29</t>
+          <t>0:41:46</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>0:41:46</t>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4184,12 +4184,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>0:33:18</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:33:18</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4609,17 +4609,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>0:09:21</t>
+          <t>0:44:43</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
@@ -4634,17 +4634,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>0:44:43</t>
+          <t>0:09:21</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -4659,12 +4659,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:34:47</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>0:34:47</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4709,12 +4709,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>0:06:12</t>
+          <t>0:16:51</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4734,17 +4734,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>0:16:51</t>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
@@ -4759,17 +4759,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>0:45:37</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>0:29:09</t>
+          <t>0:33:32</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>0:33:32</t>
+          <t>0:29:09</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5284,22 +5284,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C193" s="3" t="inlineStr">
-        <is>
-          <t>2:22:16</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E193" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5309,22 +5309,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>0:07:01</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>2:22:16</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C198" s="2" t="inlineStr">
-        <is>
-          <t>0:09:15</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C198" s="4" t="inlineStr">
+        <is>
+          <t>0:58:31</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5434,17 +5434,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C200" s="4" t="inlineStr">
-        <is>
-          <t>0:58:31</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5484,17 +5484,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>0:24:32</t>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:39:50</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>0:39:50</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C209" s="4" t="inlineStr">
-        <is>
-          <t>0:52:30</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>0:21:26</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>0:21:26</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C210" s="4" t="inlineStr">
+        <is>
+          <t>0:52:30</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5809,12 +5809,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C214" s="3" t="inlineStr">
-        <is>
-          <t>2:20:50</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5822,9 +5822,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E214" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5834,12 +5834,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>0:02:40</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>2:20:50</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5847,9 +5847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E215" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5859,22 +5859,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>0:02:37</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>4:01:43</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5884,12 +5884,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5909,22 +5909,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C218" s="3" t="inlineStr">
-        <is>
-          <t>4:01:43</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E218" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5959,17 +5959,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>1:52:51</t>
+          <t>1:13:32</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>1:13:32</t>
+          <t>1:52:51</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E221" s="3" t="inlineStr">
@@ -6059,12 +6059,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C224" s="3" t="inlineStr">
-        <is>
-          <t>2:05:56</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6072,9 +6072,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E224" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6084,12 +6084,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>0:03:39</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>2:05:56</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6097,9 +6097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6134,17 +6134,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>3:25:47</t>
+          <t>1:13:29</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>1:13:29</t>
+          <t>3:25:47</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -6209,12 +6209,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>0:49:37</t>
+          <t>0:44:39</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6234,12 +6234,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>0:44:39</t>
+          <t>0:49:37</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6409,17 +6409,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:47:05</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr">
@@ -6434,17 +6434,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>0:47:05</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr">
@@ -6509,22 +6509,22 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C242" s="3" t="inlineStr">
-        <is>
-          <t>1:08:36</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>0:07:43</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E242" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6534,22 +6534,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C243" s="2" t="inlineStr">
-        <is>
-          <t>0:07:43</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr">
+        <is>
+          <t>1:08:36</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E243" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E243" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6650,6 +6650,131 @@
       <c r="E247" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C248" s="4" t="inlineStr">
+        <is>
+          <t>0:58:26</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>0:28:15</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>0:31:13</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>0:08:57</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>1:32:09</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -7113,12 +7238,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 6, Strand 7</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E252" headerRowCount="1">
-  <autoFilter ref="A1:E252"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E253" headerRowCount="1">
+  <autoFilter ref="A1:E253"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:38:58</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0:38:58</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -634,22 +634,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0:05:37</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1:09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -659,22 +659,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>1:09:30</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0:00:21</t>
+          <t>0:29:27</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0:29:27</t>
+          <t>0:00:21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1009,17 +1009,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0:28:42</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:28:42</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1084,22 +1084,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>2:51:42</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0:26:13</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1109,22 +1109,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0:26:13</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>2:51:42</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0:06:30</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:06:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:07:22</t>
+          <t>0:04:26</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0:04:26</t>
+          <t>0:07:22</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1534,22 +1534,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>0:19:58</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>1:17:22</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1559,22 +1559,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>1:17:22</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>0:59:13</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1584,12 +1584,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>0:59:13</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>1:27:33</t>
+          <t>3:16:17</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>3:16:17</t>
+          <t>1:27:33</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:47:44</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>0:47:44</t>
+          <t>0:07:29</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1884,22 +1884,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>2:04:21</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1909,22 +1909,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>0:06:58</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>2:04:21</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1984,12 +1984,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>0:14:26</t>
+          <t>0:25:05</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:44:21</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:44:21</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>1:15:54</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>0:55:49</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2247,9 +2247,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C72" s="4" t="inlineStr">
-        <is>
-          <t>0:55:49</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>1:15:54</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2272,9 +2272,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2284,12 +2284,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:27:25</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2309,22 +2309,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>0:21:57</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>1:38:12</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>0:27:25</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2359,22 +2359,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>1:38:12</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E76" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:43:01</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0:43:01</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2459,17 +2459,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>0:20:43</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>0:50:37</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C81" s="4" t="inlineStr">
-        <is>
-          <t>0:50:37</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>0:37:25</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>0:37:25</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2609,12 +2609,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:35:11</t>
+          <t>0:05:46</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:05:46</t>
+          <t>0:35:11</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:35:14</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>0:35:14</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:30:56</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>0:30:56</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>0:27:36</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:27:36</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>0:00:28</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>0:55:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C113" s="4" t="inlineStr">
-        <is>
-          <t>0:55:00</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>0:00:28</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:38:43</t>
+          <t>0:29:30</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:29:30</t>
+          <t>0:38:43</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3634,12 +3634,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:31:19</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>0:31:19</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>0:20:06</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>0:51:53</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>0:36:16</t>
+          <t>0:20:06</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C131" s="4" t="inlineStr">
-        <is>
-          <t>0:51:53</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>0:04:55</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>2:43:02</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3947,9 +3947,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3959,12 +3959,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t>2:43:02</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3972,9 +3972,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3984,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>0:08:04</t>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4059,22 +4059,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t>2:11:30</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0:06:44</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4084,22 +4084,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>0:06:44</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>2:11:30</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>0:41:46</t>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>0:18:29</t>
+          <t>0:41:46</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4184,12 +4184,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:33:18</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>0:33:18</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>0:06:38</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>1:06:30</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4422,9 +4422,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>1:06:30</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>0:06:38</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4447,9 +4447,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E159" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>0:16:51</t>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -4734,17 +4734,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>0:45:37</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>0:06:12</t>
+          <t>0:16:51</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>0:33:32</t>
+          <t>0:29:09</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>0:29:09</t>
+          <t>0:33:32</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C180" s="4" t="inlineStr">
-        <is>
-          <t>0:53:50</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>1:30:39</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4972,9 +4972,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C181" s="3" t="inlineStr">
-        <is>
-          <t>1:30:39</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>0:53:50</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4997,9 +4997,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E181" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5209,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>0:36:01</t>
+          <t>0:32:09</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>0:32:09</t>
+          <t>0:36:01</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5284,22 +5284,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>0:07:01</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>2:22:16</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5309,22 +5309,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C194" s="3" t="inlineStr">
-        <is>
-          <t>2:22:16</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E194" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C198" s="4" t="inlineStr">
-        <is>
-          <t>0:58:31</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5434,17 +5434,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>0:24:32</t>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>0:00:45</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C200" s="4" t="inlineStr">
+        <is>
+          <t>0:58:31</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5484,17 +5484,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>0:09:15</t>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
@@ -5509,17 +5509,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>1:08:18</t>
+          <t>2:45:14</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
@@ -5534,17 +5534,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>2:45:14</t>
+          <t>1:08:18</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:39:50</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>0:39:50</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>0:21:26</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C209" s="4" t="inlineStr">
+        <is>
+          <t>0:52:30</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C210" s="4" t="inlineStr">
-        <is>
-          <t>0:52:30</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>0:21:26</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5784,22 +5784,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>0:02:40</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>4:01:43</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E213" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5859,22 +5859,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C216" s="3" t="inlineStr">
-        <is>
-          <t>4:01:43</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E216" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5884,12 +5884,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6134,17 +6134,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>1:13:29</t>
+          <t>3:25:47</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>3:25:47</t>
+          <t>1:13:29</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -6209,12 +6209,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>0:44:39</t>
+          <t>0:49:37</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6234,12 +6234,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>0:49:37</t>
+          <t>0:44:39</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6359,12 +6359,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C236" s="3" t="inlineStr">
-        <is>
-          <t>5:33:17</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>0:10:44</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6372,9 +6372,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E236" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -6384,12 +6384,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>0:10:44</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="inlineStr">
+        <is>
+          <t>5:33:17</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6397,9 +6397,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E237" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -6409,17 +6409,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>0:47:05</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr">
@@ -6434,17 +6434,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:47:05</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr">
@@ -6684,12 +6684,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>0:28:15</t>
+          <t>0:31:13</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>0:31:13</t>
+          <t>0:08:57</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6734,12 +6734,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>0:08:57</t>
+          <t>0:28:15</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6775,6 +6775,31 @@
       <c r="E252" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="inlineStr">
+        <is>
+          <t>0:26:21</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Atlanta.xlsx
+++ b/data/Sorter Inspection Validation Atlanta.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E253" headerRowCount="1">
-  <autoFilter ref="A1:E253"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E246" headerRowCount="1">
+  <autoFilter ref="A1:E246"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C26" headerRowCount="1">
-  <autoFilter ref="A1:C26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C27" headerRowCount="1">
+  <autoFilter ref="A1:C27"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,16 +505,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45660</v>
+        <v>45707</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0:23:12</t>
+          <t>0:35:11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -530,16 +530,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45661</v>
+        <v>45707</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0:00:10</t>
+          <t>0:05:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -555,16 +555,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45661</v>
+        <v>45707</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0:29:54</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -580,16 +580,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45662</v>
+        <v>45708</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0:38:58</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -605,16 +605,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45662</v>
+        <v>45708</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:35:14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -630,16 +630,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45663</v>
+        <v>45709</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>1:09:30</t>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0:44:44</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -647,24 +647,24 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45663</v>
+        <v>45710</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0:05:37</t>
+          <t>0:30:56</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,16 +680,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45664</v>
+        <v>45710</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0:30:35</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -705,16 +705,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45665</v>
+        <v>45711</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0:27:05</t>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>1:50:49</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -722,29 +722,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45666</v>
+        <v>45714</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>0:50:03</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0:32:35</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -755,16 +755,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45667</v>
+        <v>45716</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0:39:09</t>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>1:59:48</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -772,24 +772,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45668</v>
+        <v>45717</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0:33:55</t>
+          <t>0:29:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -805,16 +805,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45669</v>
+        <v>45718</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0:46:45</t>
+          <t>0:48:50</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -830,16 +830,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45670</v>
+        <v>45719</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>2:02:29</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0:41:07</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -847,15 +847,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45671</v>
+        <v>45720</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0:29:27</t>
+          <t>0:27:45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -880,16 +880,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45671</v>
+        <v>45721</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0:00:21</t>
+          <t>0:28:40</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -905,16 +905,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45672</v>
+        <v>45722</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0:24:42</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>1:09:46</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -922,49 +922,49 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45673</v>
+        <v>45723</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>1:52:17</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0:36:52</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45674</v>
+        <v>45724</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0:24:30</t>
+          <t>0:27:36</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -980,16 +980,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45675</v>
+        <v>45724</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0:41:08</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1005,7 +1005,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45676</v>
+        <v>45725</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1030,16 +1030,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45676</v>
+        <v>45725</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0:28:42</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1:55:56</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1047,24 +1047,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45677</v>
+        <v>45726</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0:33:18</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1080,16 +1080,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45678</v>
+        <v>45726</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0:26:13</t>
+          <t>0:31:03</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1105,46 +1105,46 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45678</v>
+        <v>45727</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>2:51:42</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0:18:14</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45679</v>
+        <v>45728</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0:19:03</t>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>0:58:19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1155,16 +1155,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45680</v>
+        <v>45728</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>1:15:34</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1172,29 +1172,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45681</v>
+        <v>45731</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>0:15:12</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>0:55:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1205,7 +1205,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45681</v>
+        <v>45731</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0:06:37</t>
+          <t>0:00:28</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1230,7 +1230,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45682</v>
+        <v>45732</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:00:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1255,21 +1255,21 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45682</v>
+        <v>45732</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0:06:30</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1280,41 +1280,41 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45683</v>
+        <v>45733</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>0:31:12</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>2:01:29</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45684</v>
+        <v>45734</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0:32:14</t>
+          <t>0:08:16</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1330,21 +1330,21 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45685</v>
+        <v>45739</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:04:26</t>
+          <t>0:26:54</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1355,16 +1355,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45685</v>
+        <v>45741</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0:07:22</t>
+          <t>0:38:43</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1380,41 +1380,41 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45686</v>
+        <v>45741</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>1:55:28</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45686</v>
+        <v>45741</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>2:01:46</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>0:29:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1422,24 +1422,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45687</v>
+        <v>45743</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>1:55:55</t>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>0:31:36</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1447,24 +1447,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45687</v>
+        <v>45746</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>0:51:51</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0:41:21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1480,16 +1480,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45688</v>
+        <v>45750</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1505,16 +1505,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45688</v>
+        <v>45751</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0:21:58</t>
+          <t>0:30:22</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1530,16 +1530,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45689</v>
+        <v>45752</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>1:17:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>0:38:28</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1547,29 +1547,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45689</v>
+        <v>45753</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>0:59:13</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -1580,21 +1580,21 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45689</v>
+        <v>45753</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>0:19:58</t>
+          <t>0:31:19</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -1605,16 +1605,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45690</v>
+        <v>45754</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>0:31:59</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>0:51:53</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1630,41 +1630,41 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45691</v>
+        <v>45754</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>3:16:17</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>0:20:06</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45691</v>
+        <v>45754</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>1:27:33</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>0:36:16</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1672,29 +1672,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45692</v>
+        <v>45755</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>0:55:21</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>0:36:12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -1705,16 +1705,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45692</v>
+        <v>45756</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>0:01:21</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>0:53:48</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1730,16 +1730,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45693</v>
+        <v>45756</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>0:47:44</t>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1755,21 +1755,21 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45693</v>
+        <v>45756</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>0:07:29</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>0:52:12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -1780,16 +1780,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45694</v>
+        <v>45757</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>0:07:24</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>1:52:43</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1797,15 +1797,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45694</v>
+        <v>45757</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>0:36:15</t>
+          <t>0:33:08</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1830,46 +1830,46 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45695</v>
+        <v>45758</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>0:30:47</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>1:42:29</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45695</v>
+        <v>45759</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>0:45:28</t>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1880,16 +1880,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45695</v>
+        <v>45759</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1905,21 +1905,21 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45695</v>
+        <v>45759</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>2:04:21</t>
+          <t>2:43:02</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -1930,21 +1930,21 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45696</v>
+        <v>45760</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>0:41:42</t>
+          <t>0:47:12</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
@@ -1955,16 +1955,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45696</v>
+        <v>45761</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>0:30:19</t>
+          <t>0:34:23</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1980,16 +1980,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45697</v>
+        <v>45762</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>0:06:44</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2005,32 +2005,32 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45697</v>
+        <v>45762</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>0:14:26</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>2:11:30</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45697</v>
+        <v>45763</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>0:05:32</t>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2055,16 +2055,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45698</v>
+        <v>45763</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>0:32:56</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>1:00:41</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2072,24 +2072,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45698</v>
+        <v>45763</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>0:43:57</t>
+          <t>0:41:46</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2105,16 +2105,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45699</v>
+        <v>45764</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:33:18</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2130,16 +2130,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45699</v>
+        <v>45764</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>0:44:21</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2155,21 +2155,21 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45699</v>
+        <v>45764</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:35:32</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -2180,16 +2180,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45700</v>
+        <v>45764</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>0:36:50</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2205,16 +2205,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45700</v>
+        <v>45765</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>1:04:17</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0:44:36</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2222,24 +2222,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45701</v>
+        <v>45765</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C71" s="4" t="inlineStr">
-        <is>
-          <t>0:55:49</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0:04:31</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2255,16 +2255,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45701</v>
+        <v>45766</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>1:15:54</t>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0:30:24</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2272,24 +2272,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45702</v>
+        <v>45767</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>0:27:25</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>0:57:20</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2305,41 +2305,41 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45702</v>
+        <v>45768</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>1:38:12</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0:40:18</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45702</v>
+        <v>45769</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>0:03:27</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>1:06:30</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2347,24 +2347,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45702</v>
+        <v>45769</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:21:57</t>
+          <t>0:06:38</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2380,16 +2380,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45703</v>
+        <v>45770</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:43:01</t>
+          <t>0:29:28</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2405,21 +2405,21 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45703</v>
+        <v>45771</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:35:29</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
@@ -2430,21 +2430,21 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45704</v>
+        <v>45772</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C79" s="4" t="inlineStr">
-        <is>
-          <t>0:51:13</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>0:35:05</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
@@ -2455,21 +2455,21 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45705</v>
+        <v>45773</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>0:50:37</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:05:39</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
@@ -2480,16 +2480,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45705</v>
+        <v>45774</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>0:37:25</t>
+          <t>0:36:01</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2505,16 +2505,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45705</v>
+        <v>45774</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:34:19</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2530,21 +2530,21 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45705</v>
+        <v>45775</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:20:43</t>
+          <t>0:09:21</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
@@ -2555,16 +2555,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45706</v>
+        <v>45775</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>0:39:32</t>
+          <t>0:44:43</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2580,16 +2580,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45707</v>
+        <v>45776</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:34:47</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2605,16 +2605,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45707</v>
+        <v>45776</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:05:46</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2630,16 +2630,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45707</v>
+        <v>45777</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:35:11</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2655,21 +2655,21 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45708</v>
+        <v>45777</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>0:35:14</t>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
@@ -2680,7 +2680,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45708</v>
+        <v>45777</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:16:51</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2705,21 +2705,21 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45709</v>
+        <v>45778</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>0:44:44</t>
+          <t>0:29:09</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
@@ -2730,16 +2730,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>45710</v>
+        <v>45778</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:30:56</t>
+          <t>0:14:55</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2755,16 +2755,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>45710</v>
+        <v>45778</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:33:32</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2780,16 +2780,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45711</v>
+        <v>45779</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>1:50:49</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0:38:40</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2797,24 +2797,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>45714</v>
+        <v>45780</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>0:32:35</t>
+          <t>0:29:19</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2830,16 +2830,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45716</v>
+        <v>45781</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>1:59:48</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0:39:35</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2847,24 +2847,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45717</v>
+        <v>45781</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>0:29:30</t>
+          <t>0:07:41</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2880,21 +2880,21 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45718</v>
+        <v>45782</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>0:48:50</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>0:53:50</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
@@ -2905,41 +2905,41 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45719</v>
+        <v>45782</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>0:41:07</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>1:30:39</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45720</v>
+        <v>45783</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>0:27:45</t>
+          <t>0:39:12</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2955,41 +2955,41 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45721</v>
+        <v>45784</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>0:28:40</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>1:09:20</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>45722</v>
+        <v>45785</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>1:09:46</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0:24:01</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2997,24 +2997,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E101" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45723</v>
+        <v>45786</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>0:36:52</t>
+          <t>0:33:58</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3030,16 +3030,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>45724</v>
+        <v>45786</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:41:42</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3055,16 +3055,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>45724</v>
+        <v>45787</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>0:27:36</t>
+          <t>0:30:39</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3080,16 +3080,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45725</v>
+        <v>45788</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>1:55:56</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>0:51:50</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3097,24 +3097,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E105" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45725</v>
+        <v>45789</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:44:13</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3130,16 +3130,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45726</v>
+        <v>45790</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:36:01</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3155,16 +3155,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45726</v>
+        <v>45790</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>0:31:03</t>
+          <t>0:32:09</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3180,16 +3180,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45727</v>
+        <v>45791</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>0:18:14</t>
+          <t>0:10:19</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3205,16 +3205,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45728</v>
+        <v>45792</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Strand 8</t>
         </is>
       </c>
-      <c r="C110" s="4" t="inlineStr">
-        <is>
-          <t>0:58:19</t>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>2:22:16</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3222,24 +3222,24 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45728</v>
+        <v>45792</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>0:05:25</t>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3255,21 +3255,21 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45731</v>
+        <v>45793</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C112" s="4" t="inlineStr">
-        <is>
-          <t>0:55:00</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>0:22:19</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
@@ -3280,46 +3280,46 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>45731</v>
+        <v>45794</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>0:00:28</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>1:31:58</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45732</v>
+        <v>45795</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:29:51</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
@@ -3330,16 +3330,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45732</v>
+        <v>45796</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>0:00:30</t>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3355,41 +3355,41 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45733</v>
+        <v>45796</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>2:01:29</t>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45734</v>
+        <v>45796</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="inlineStr">
-        <is>
-          <t>0:08:16</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t>0:58:31</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3405,16 +3405,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45739</v>
+        <v>45796</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>0:26:54</t>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3430,41 +3430,41 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45741</v>
+        <v>45797</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>0:29:30</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>1:08:18</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>45741</v>
+        <v>45797</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>0:38:43</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>2:45:14</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3472,24 +3472,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>45741</v>
+        <v>45798</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>0:01:40</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>1:16:09</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3497,54 +3497,54 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>45743</v>
+        <v>45799</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>0:31:36</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>2:55:35</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>45746</v>
+        <v>45800</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>0:41:21</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
@@ -3555,16 +3555,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>45750</v>
+        <v>45800</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:39:50</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3580,16 +3580,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>45751</v>
+        <v>45800</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>0:30:22</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3605,16 +3605,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>45752</v>
+        <v>45801</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>0:38:28</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>0:52:30</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3630,16 +3630,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>45753</v>
+        <v>45801</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>0:31:19</t>
+          <t>0:21:26</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3655,21 +3655,21 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>45753</v>
+        <v>45802</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:40:12</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
@@ -3680,16 +3680,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>45754</v>
+        <v>45803</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C129" s="4" t="inlineStr">
-        <is>
-          <t>0:51:53</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>3:13:00</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3697,49 +3697,49 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45754</v>
+        <v>45804</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>0:20:06</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>2:20:50</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>45754</v>
+        <v>45804</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>0:36:16</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3755,16 +3755,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45755</v>
+        <v>45804</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>0:36:12</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3780,16 +3780,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>45756</v>
+        <v>45804</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>0:44:47</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3805,16 +3805,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45756</v>
+        <v>45804</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C134" s="4" t="inlineStr">
-        <is>
-          <t>0:53:48</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3830,16 +3830,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45756</v>
+        <v>45804</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C135" s="4" t="inlineStr">
-        <is>
-          <t>0:52:12</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>4:01:43</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3847,24 +3847,24 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45757</v>
+        <v>45805</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t>1:52:43</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>0:36:51</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3872,24 +3872,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E136" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>45757</v>
+        <v>45806</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>0:33:08</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>1:52:51</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,24 +3897,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>45758</v>
+        <v>45806</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>1:42:29</t>
+          <t>1:13:32</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3930,16 +3930,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>45759</v>
+        <v>45807</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr">
-        <is>
-          <t>2:43:02</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>0:08:24</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3947,24 +3947,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>45759</v>
+        <v>45807</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>0:08:04</t>
+          <t>0:29:05</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3980,16 +3980,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>45759</v>
+        <v>45808</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>0:04:55</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4005,16 +4005,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>45760</v>
+        <v>45808</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>0:47:12</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>2:05:56</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4022,24 +4022,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>45761</v>
+        <v>45809</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>0:34:23</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>1:04:05</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4047,24 +4047,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>45762</v>
+        <v>45810</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>0:06:44</t>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>3:25:47</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4072,24 +4072,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>45762</v>
+        <v>45810</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>2:11:30</t>
+          <t>1:13:29</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4105,16 +4105,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>45763</v>
+        <v>45810</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>0:18:29</t>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4130,16 +4130,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>45763</v>
+        <v>45811</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>0:41:46</t>
+          <t>0:49:37</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4155,16 +4155,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>45763</v>
+        <v>45811</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C148" s="3" t="inlineStr">
-        <is>
-          <t>1:00:41</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>0:44:39</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4172,24 +4172,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E148" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>45764</v>
+        <v>45812</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>0:33:18</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>1:30:52</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4197,24 +4197,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E149" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>45764</v>
+        <v>45814</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>0:07:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C150" s="4" t="inlineStr">
+        <is>
+          <t>0:54:41</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4230,16 +4230,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>45764</v>
+        <v>45816</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>0:06:20</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>1:04:05</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4247,29 +4247,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>45764</v>
+        <v>45816</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:35:32</t>
+          <t>0:34:36</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
@@ -4280,16 +4280,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>45765</v>
+        <v>45817</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>0:44:36</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>5:33:17</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4297,24 +4297,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>45765</v>
+        <v>45817</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>0:04:31</t>
+          <t>0:10:44</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4330,16 +4330,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>45766</v>
+        <v>45818</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>0:30:24</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4355,21 +4355,21 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>45767</v>
+        <v>45818</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C156" s="4" t="inlineStr">
-        <is>
-          <t>0:57:20</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>0:47:05</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
@@ -4380,16 +4380,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>45768</v>
+        <v>45819</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>0:40:18</t>
+          <t>0:33:26</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4405,16 +4405,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>45769</v>
+        <v>45820</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>1:06:30</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>0:30:36</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4422,49 +4422,49 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E158" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>45769</v>
+        <v>45821</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t>0:06:38</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>1:08:36</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>45770</v>
+        <v>45821</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>0:29:28</t>
+          <t>0:07:43</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4480,41 +4480,41 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>45771</v>
+        <v>45822</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>0:35:29</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>1:26:17</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>45772</v>
+        <v>45823</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>0:35:05</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>1:16:29</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4522,49 +4522,49 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>45773</v>
+        <v>45823</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C163" s="2" t="inlineStr">
-        <is>
-          <t>0:05:39</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>2:49:51</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>45774</v>
+        <v>45824</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>0:36:01</t>
+          <t>0:43:41</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4580,16 +4580,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>45774</v>
+        <v>45825</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>0:34:19</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>0:58:26</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4605,16 +4605,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>45775</v>
+        <v>45826</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>0:44:43</t>
+          <t>0:08:57</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4630,21 +4630,21 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>45775</v>
+        <v>45826</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>0:09:21</t>
+          <t>0:31:13</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -4655,16 +4655,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>45776</v>
+        <v>45826</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>0:34:47</t>
+          <t>0:28:15</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4680,16 +4680,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>45776</v>
+        <v>45826</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>0:07:03</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>1:32:09</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4697,24 +4697,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E169" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>45777</v>
+        <v>45827</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>0:45:37</t>
+          <t>0:26:21</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4730,7 +4730,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>45777</v>
+        <v>45828</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>0:06:12</t>
+          <t>0:48:27</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4755,16 +4755,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>45777</v>
+        <v>45829</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>0:16:51</t>
+          <t>0:42:08</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4780,16 +4780,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>45778</v>
+        <v>45830</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>0:29:09</t>
+          <t>0:44:09</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4805,16 +4805,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>45778</v>
+        <v>45831</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>0:33:32</t>
+          <t>0:31:51</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4830,16 +4830,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>45778</v>
+        <v>45832</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>0:14:55</t>
+          <t>0:04:51</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4855,16 +4855,16 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>45779</v>
+        <v>45832</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>0:38:40</t>
+          <t>0:02:57</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4880,16 +4880,16 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>45780</v>
+        <v>45832</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>0:29:19</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>1:50:16</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4897,24 +4897,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>45781</v>
+        <v>45833</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>0:39:35</t>
+          <t>0:28:24</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4930,16 +4930,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>45781</v>
+        <v>45834</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>0:07:41</t>
+          <t>0:48:16</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4955,16 +4955,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>45782</v>
+        <v>45834</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>1:30:39</t>
+          <t>1:08:54</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4980,16 +4980,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>45782</v>
+        <v>45835</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C181" s="4" t="inlineStr">
-        <is>
-          <t>0:53:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>1:03:14</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4997,49 +4997,49 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>45783</v>
+        <v>45835</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>0:39:12</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>1:15:13</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>45784</v>
+        <v>45836</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>1:09:20</t>
+          <t>2:14:05</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5055,7 +5055,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>45785</v>
+        <v>45836</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>0:24:01</t>
+          <t>0:04:21</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5080,16 +5080,16 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>45786</v>
+        <v>45836</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>0:41:42</t>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>1:03:40</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5097,24 +5097,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E185" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>45786</v>
+        <v>45837</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>0:33:58</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>1:57:12</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5122,24 +5122,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E186" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>45787</v>
+        <v>45838</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>0:30:39</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C187" s="4" t="inlineStr">
+        <is>
+          <t>0:53:57</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5155,16 +5155,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>45788</v>
+        <v>45839</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C188" s="4" t="inlineStr">
-        <is>
-          <t>0:51:50</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>1:36:37</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5172,29 +5172,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E188" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>45789</v>
+        <v>45839</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>0:44:13</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr">
@@ -5205,7 +5205,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>45790</v>
+        <v>45840</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>0:32:09</t>
+          <t>0:34:28</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5230,16 +5230,16 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>45790</v>
+        <v>45841</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>0:36:01</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>1:02:03</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5247,29 +5247,29 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E191" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E191" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>45791</v>
+        <v>45841</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>0:10:19</t>
+          <t>0:37:28</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr">
@@ -5280,16 +5280,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>45792</v>
+        <v>45841</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C193" s="3" t="inlineStr">
-        <is>
-          <t>2:22:16</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>0:26:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5297,24 +5297,24 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E193" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>45792</v>
+        <v>45842</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>0:07:01</t>
+          <t>0:40:20</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5330,21 +5330,21 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>45793</v>
+        <v>45843</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>0:22:19</t>
+          <t>0:48:33</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr">
@@ -5355,7 +5355,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>45794</v>
+        <v>45844</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5364,12 +5364,12 @@
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>1:31:58</t>
+          <t>3:57:24</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -5380,16 +5380,16 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>45795</v>
+        <v>45845</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>0:29:51</t>
+      <c r="C197" s="4" t="inlineStr">
+        <is>
+          <t>0:50:01</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5405,16 +5405,16 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>45796</v>
+        <v>45846</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:40:42</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5430,16 +5430,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>45796</v>
+        <v>45847</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>0:09:15</t>
+          <t>0:30:19</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5455,21 +5455,21 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>45796</v>
+        <v>45847</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C200" s="4" t="inlineStr">
-        <is>
-          <t>0:58:31</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>0:26:18</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
@@ -5480,21 +5480,21 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>45796</v>
+        <v>45848</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>0:24:32</t>
+          <t>0:03:25</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr">
@@ -5505,16 +5505,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>45797</v>
+        <v>45848</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>2:45:14</t>
+          <t>1:34:27</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5530,46 +5530,46 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>45797</v>
+        <v>45848</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C203" s="3" t="inlineStr">
-        <is>
-          <t>1:08:18</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C203" s="4" t="inlineStr">
+        <is>
+          <t>0:51:34</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E203" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>45798</v>
+        <v>45849</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>1:16:09</t>
+          <t>1:17:19</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
@@ -5580,16 +5580,16 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>45799</v>
+        <v>45849</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C205" s="3" t="inlineStr">
-        <is>
-          <t>2:55:35</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>0:12:19</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5597,24 +5597,24 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E205" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>45800</v>
+        <v>45849</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>0:39:50</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5630,16 +5630,16 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>45800</v>
+        <v>45850</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>0:08:33</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>1:01:37</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5647,49 +5647,49 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E207" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>45800</v>
+        <v>45850</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>0:00:47</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>1:09:01</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>45801</v>
+        <v>45851</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C209" s="4" t="inlineStr">
         <is>
-          <t>0:52:30</t>
+          <t>0:56:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5705,16 +5705,16 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>45801</v>
+        <v>45852</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>0:21:26</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>1:01:45</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5722,24 +5722,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>45802</v>
+        <v>45853</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>0:40:12</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5755,21 +5755,21 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>45803</v>
+        <v>45853</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>3:13:00</t>
+          <t>1:26:42</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
@@ -5780,16 +5780,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>45804</v>
+        <v>45853</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Strand 7</t>
         </is>
       </c>
-      <c r="C213" s="3" t="inlineStr">
-        <is>
-          <t>4:01:43</t>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>0:13:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5797,15 +5797,15 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E213" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>45804</v>
+        <v>45854</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>0:02:37</t>
+          <t>0:24:31</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5830,16 +5830,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>45804</v>
+        <v>45854</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C215" s="3" t="inlineStr">
-        <is>
-          <t>2:20:50</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C215" s="4" t="inlineStr">
+        <is>
+          <t>0:51:42</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5847,24 +5847,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E215" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>45804</v>
+        <v>45855</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>0:03:50</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>1:31:07</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5872,24 +5872,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E216" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>45804</v>
+        <v>45856</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:04:22</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5905,16 +5905,16 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>45804</v>
+        <v>45856</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5930,7 +5930,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>45805</v>
+        <v>45857</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -5939,12 +5939,12 @@
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>0:36:51</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr">
@@ -5955,66 +5955,66 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>45806</v>
+        <v>45857</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C220" s="3" t="inlineStr">
-        <is>
-          <t>1:13:32</t>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>0:42:42</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E220" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>45806</v>
+        <v>45858</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C221" s="3" t="inlineStr">
-        <is>
-          <t>1:52:51</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>0:36:43</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E221" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>45807</v>
+        <v>45859</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>0:29:05</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C222" s="4" t="inlineStr">
+        <is>
+          <t>0:52:27</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6030,21 +6030,21 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>45807</v>
+        <v>45860</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>0:08:24</t>
+          <t>0:33:06</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr">
@@ -6055,16 +6055,16 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>45808</v>
+        <v>45861</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:30:51</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6080,16 +6080,16 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>45808</v>
+        <v>45862</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C225" s="3" t="inlineStr">
-        <is>
-          <t>2:05:56</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>0:41:35</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6097,24 +6097,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E225" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>45809</v>
+        <v>45862</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C226" s="3" t="inlineStr">
-        <is>
-          <t>1:04:05</t>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>0:00:21</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6122,49 +6122,49 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E226" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>45810</v>
+        <v>45863</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Strand 3</t>
         </is>
       </c>
-      <c r="C227" s="3" t="inlineStr">
-        <is>
-          <t>3:25:47</t>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>0:18:07</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E227" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>45810</v>
+        <v>45863</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Strand 5</t>
         </is>
       </c>
-      <c r="C228" s="3" t="inlineStr">
-        <is>
-          <t>1:13:29</t>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>0:43:57</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6172,29 +6172,29 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E228" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>45810</v>
+        <v>45863</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>0:03:24</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C229" s="4" t="inlineStr">
+        <is>
+          <t>0:54:12</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr">
@@ -6205,16 +6205,16 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>45811</v>
+        <v>45864</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>0:49:37</t>
+          <t>0:45:36</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6230,16 +6230,16 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>45811</v>
+        <v>45865</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>0:44:39</t>
+          <t>0:35:06</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6255,41 +6255,41 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>45812</v>
+        <v>45866</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C232" s="3" t="inlineStr">
-        <is>
-          <t>1:30:52</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C232" s="4" t="inlineStr">
+        <is>
+          <t>0:57:40</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E232" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>45814</v>
+        <v>45866</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C233" s="4" t="inlineStr">
-        <is>
-          <t>0:54:41</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>0:35:05</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6305,16 +6305,16 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>45816</v>
+        <v>45867</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C234" s="3" t="inlineStr">
-        <is>
-          <t>1:04:05</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>0:31:40</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6322,24 +6322,24 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E234" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>45816</v>
+        <v>45868</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>0:34:36</t>
+          <t>0:46:26</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6355,16 +6355,16 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>45817</v>
+        <v>45869</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>0:10:44</t>
+          <t>0:41:12</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6380,16 +6380,16 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>45817</v>
+        <v>45870</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr">
         <is>
-          <t>5:33:17</t>
+          <t>1:59:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6405,16 +6405,16 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>45818</v>
+        <v>45871</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:32:15</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6430,46 +6430,46 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>45818</v>
+        <v>45872</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>0:47:05</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="inlineStr">
+        <is>
+          <t>1:10:12</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E239" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>45819</v>
+        <v>45873</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>0:33:26</t>
+          <t>0:49:14</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr">
@@ -6480,16 +6480,16 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>45820</v>
+        <v>45874</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>0:30:36</t>
+          <t>0:45:17</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6505,16 +6505,16 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>45821</v>
+        <v>45875</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>0:07:43</t>
+          <t>0:45:13</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6530,16 +6530,16 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>45821</v>
+        <v>45876</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>1:08:36</t>
+          <t>3:48:14</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6555,66 +6555,66 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>45822</v>
+        <v>45877</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C244" s="3" t="inlineStr">
-        <is>
-          <t>1:26:17</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>0:07:27</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E244" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>45823</v>
+        <v>45878</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C245" s="3" t="inlineStr">
-        <is>
-          <t>2:49:51</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="inlineStr">
+        <is>
+          <t>0:46:53</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E245" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>45823</v>
+        <v>45879</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C246" s="3" t="inlineStr">
-        <is>
-          <t>1:16:29</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>0:35:03</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6622,182 +6622,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E246" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>45824</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C247" s="2" t="inlineStr">
-        <is>
-          <t>0:43:41</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E247" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>45825</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C248" s="4" t="inlineStr">
-        <is>
-          <t>0:58:26</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E248" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C249" s="2" t="inlineStr">
-        <is>
-          <t>0:31:13</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C250" s="2" t="inlineStr">
-        <is>
-          <t>0:08:57</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C251" s="2" t="inlineStr">
-        <is>
-          <t>0:28:15</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>45826</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C252" s="3" t="inlineStr">
-        <is>
-          <t>1:32:09</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E252" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>45827</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C253" s="2" t="inlineStr">
-        <is>
-          <t>0:26:21</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E253" s="2" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -6817,7 +6642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6850,12 +6675,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-29-24 to 01-04-25</t>
+          <t>02-16-25 to 02-22-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 5, Strand 6</t>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -6867,12 +6692,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-05-25 to 01-11-25</t>
+          <t>02-23-25 to 03-01-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 2, Strand 5, Strand 6, Strand 7</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -6884,29 +6709,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-12-25 to 01-18-25</t>
+          <t>03-02-25 to 03-08-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-19-25 to 01-25-25</t>
+          <t>03-09-25 to 03-15-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -6918,12 +6743,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-26-25 to 02-01-25</t>
+          <t>03-16-25 to 03-22-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 3, Strand 4, Strand 7</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -6935,12 +6760,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-02-25 to 02-08-25</t>
+          <t>03-23-25 to 03-29-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 8</t>
+          <t>Strand 3, Strand 5, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -6952,46 +6777,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-09-25 to 02-15-25</t>
+          <t>03-30-25 to 04-05-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 2, Strand 3, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-16-25 to 02-22-25</t>
+          <t>04-06-25 to 04-12-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-23-25 to 03-01-25</t>
+          <t>04-13-25 to 04-19-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 5, Strand 6, Strand 7</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 8</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -7003,7 +6828,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-02-25 to 03-08-25</t>
+          <t>04-20-25 to 04-26-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7020,46 +6845,46 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-09-25 to 03-15-25</t>
+          <t>04-27-25 to 05-03-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-16-25 to 03-22-25</t>
+          <t>05-04-25 to 05-10-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4, Strand 7</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-23-25 to 03-29-25</t>
+          <t>05-11-25 to 05-17-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 5, Strand 7, Strand 8</t>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -7071,46 +6896,46 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-30-25 to 04-05-25</t>
+          <t>05-18-25 to 05-24-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 3, Strand 4, Strand 5</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-06-25 to 04-12-25</t>
+          <t>05-25-25 to 05-31-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-13-25 to 04-19-25</t>
+          <t>06-01-25 to 06-07-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 8</t>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -7122,24 +6947,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-20-25 to 04-26-25</t>
+          <t>06-08-25 to 06-14-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-27-25 to 05-03-25</t>
+          <t>06-15-25 to 06-21-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7156,29 +6981,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05-04-25 to 05-10-25</t>
+          <t>06-22-25 to 06-28-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05-11-25 to 05-17-25</t>
+          <t>06-29-25 to 07-05-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -7190,7 +7015,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05-18-25 to 05-24-25</t>
+          <t>07-06-25 to 07-12-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7207,7 +7032,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05-25-25 to 05-31-25</t>
+          <t>07-13-25 to 07-19-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7224,12 +7049,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06-01-25 to 06-07-25</t>
+          <t>07-20-25 to 07-26-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6</t>
+          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -7241,34 +7066,51 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06-08-25 to 06-14-25</t>
+          <t>07-27-25 to 08-02-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06-15-25 to 06-21-25</t>
+          <t>08-03-25 to 08-09-25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08-10-25 to 08-16-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
